--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACE4FC1-8DFC-452A-ADEE-85617BCD85FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9888" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,11 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -229,12 +229,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -425,12 +425,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -621,12 +621,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -817,12 +817,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -836,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1013,12 +1013,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2260,11 +2260,42 @@
     <t>회의</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2448,7 +2479,7 @@
   <cellStyles count="4">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2828,23 +2859,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2856,10 +2887,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2871,8 +2902,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3054,7 +3085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43728</v>
       </c>
@@ -3278,21 +3309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +3340,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3356,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3441,7 +3472,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3465,7 +3496,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3621,20 +3652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3682,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3667,7 +3698,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3783,7 +3814,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3807,7 +3838,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3963,20 +3994,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +4024,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4040,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4029,7 +4060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4049,7 +4080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4069,7 +4100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43715</v>
       </c>
@@ -4089,37 +4120,85 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="26"/>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>120</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>180</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>120</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4145,7 +4224,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4169,7 +4248,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4325,20 +4404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -4355,7 +4434,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4371,7 +4450,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +4470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4411,7 +4490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4431,7 +4510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43725</v>
       </c>
@@ -4451,7 +4530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43726</v>
       </c>
@@ -4471,7 +4550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43727</v>
       </c>
@@ -4491,7 +4570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43728</v>
       </c>
@@ -4571,7 +4650,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4595,7 +4674,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4751,20 +4830,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4860,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4876,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4817,7 +4896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -4837,7 +4916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4857,7 +4936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -4877,7 +4956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4897,27 +4976,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="6">
-        <v>0.9375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C10" s="6">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -4977,7 +5056,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5001,7 +5080,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5158,33 +5237,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -5201,7 +5280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
@@ -5218,7 +5297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5238,7 +5317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -5248,17 +5327,17 @@
       </c>
       <c r="C7" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>1710</v>
+        <v>2160</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>1710</v>
+        <v>2160</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
@@ -5278,7 +5357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5298,7 +5377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
@@ -5318,7 +5397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>39</v>
       </c>
@@ -5341,5 +5420,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingeunpark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACE4FC1-8DFC-452A-ADEE-85617BCD85FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92570EC-C1DB-4603-9C2E-B45E6980E55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1209,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2262,34 +2263,22 @@
   </si>
   <si>
     <r>
-      <t>9</t>
+      <t>9월</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 PPT 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2300,7 +2289,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2370,6 +2359,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2420,7 +2415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2475,6 +2470,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -2863,19 +2862,19 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2887,10 +2886,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2902,8 +2901,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43728</v>
       </c>
@@ -3313,17 +3312,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3339,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3472,7 +3471,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3496,7 +3495,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3655,17 +3654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +3697,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3718,53 +3717,113 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>43713</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="9">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17">
+        <v>90</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17">
+        <v>120</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>120</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>180</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -3814,7 +3873,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3838,7 +3897,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3998,16 +4057,16 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4083,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4040,7 +4099,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4080,7 +4139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4100,7 +4159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43715</v>
       </c>
@@ -4120,85 +4179,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.875</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>120</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>44</v>
-      </c>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>60</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>180</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>120</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4224,7 +4235,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4248,7 +4259,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4407,17 +4418,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -4434,7 +4445,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4461,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4490,7 +4501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4510,7 +4521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43725</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43726</v>
       </c>
@@ -4550,7 +4561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43727</v>
       </c>
@@ -4570,7 +4581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43728</v>
       </c>
@@ -4650,7 +4661,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4674,7 +4685,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4833,17 +4844,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="6" max="6" width="39.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4871,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4876,7 +4887,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4896,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -4916,7 +4927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4936,7 +4947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4976,27 +4987,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="6">
-        <v>0.91666666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C10" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5056,7 +5067,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5080,7 +5091,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5244,26 +5255,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -5280,24 +5291,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A5,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C5" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A5,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:D11" si="0">C5-B5</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5317,7 +5328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -5327,17 +5338,17 @@
       </c>
       <c r="C7" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>2160</v>
+        <v>2070</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2070</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
@@ -5357,7 +5368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>39</v>
       </c>
@@ -5420,6 +5431,5 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingeunpark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92570EC-C1DB-4603-9C2E-B45E6980E55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4BA4B-DE76-43F9-88C6-F545AF2A0861}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1210,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1408,35 +1407,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>계획서</t>
     </r>
     <r>
@@ -2278,6 +2248,111 @@
   </si>
   <si>
     <t>발표 PPT 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다큐멘테이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료조사</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2859,22 +2934,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2886,10 +2961,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2901,8 +2976,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2922,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -2943,7 +3018,7 @@
       </c>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>43713</v>
       </c>
@@ -2964,7 +3039,7 @@
       </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43714</v>
       </c>
@@ -2984,7 +3059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43715</v>
       </c>
@@ -3004,7 +3079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>43717</v>
       </c>
@@ -3024,7 +3099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>43725</v>
       </c>
@@ -3044,7 +3119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>43726</v>
       </c>
@@ -3061,10 +3136,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43727</v>
       </c>
@@ -3081,70 +3156,118 @@
         <v>60</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>43728</v>
       </c>
       <c r="B14" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C14" s="3">
-        <v>6.25E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
       <c r="E14" s="17">
+        <v>60</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>43728</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
         <v>210</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>43730</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>120</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>43735</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>180</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>43736</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>120</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3152,23 +3275,23 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="9"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3176,7 +3299,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3184,7 +3307,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3192,7 +3315,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3200,7 +3323,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3208,7 +3331,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3216,7 +3339,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3224,7 +3347,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3232,7 +3355,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3240,7 +3363,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3248,7 +3371,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3256,7 +3379,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3264,7 +3387,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3272,29 +3395,37 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3315,14 +3446,14 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3334,12 +3465,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3351,11 +3482,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3375,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3383,7 +3514,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3391,7 +3522,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3399,7 +3530,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3407,7 +3538,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3415,7 +3546,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3423,7 +3554,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3431,7 +3562,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3439,7 +3570,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3447,7 +3578,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3455,7 +3586,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3463,7 +3594,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3471,7 +3602,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3479,7 +3610,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3487,7 +3618,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3495,7 +3626,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3503,7 +3634,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3511,7 +3642,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3519,7 +3650,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3527,7 +3658,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3535,7 +3666,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3543,7 +3674,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3551,7 +3682,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3559,7 +3690,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3567,7 +3698,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3575,7 +3706,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3583,7 +3714,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3591,7 +3722,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3599,7 +3730,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3607,7 +3738,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3615,7 +3746,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3623,7 +3754,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3631,7 +3762,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3654,17 +3785,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3676,12 +3807,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3693,11 +3824,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3717,7 +3848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -3737,9 +3868,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
         <v>0.75</v>
@@ -3754,12 +3885,12 @@
         <v>120</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -3774,12 +3905,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -3794,12 +3925,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>0.9375</v>
@@ -3814,10 +3945,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3825,7 +3956,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3833,7 +3964,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3841,7 +3972,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3849,7 +3980,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3857,7 +3988,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3865,7 +3996,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3873,7 +4004,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3881,7 +4012,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3889,7 +4020,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3897,7 +4028,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3905,7 +4036,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3913,7 +4044,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3921,7 +4052,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3929,7 +4060,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3937,7 +4068,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3945,7 +4076,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3953,7 +4084,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3961,7 +4092,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3969,7 +4100,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3977,7 +4108,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3985,7 +4116,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3993,7 +4124,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4001,7 +4132,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4009,7 +4140,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4017,7 +4148,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4025,7 +4156,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4033,7 +4164,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4060,13 +4191,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4078,12 +4209,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4095,11 +4226,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4139,7 +4270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4159,7 +4290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43715</v>
       </c>
@@ -4176,10 +4307,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4187,7 +4318,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4195,7 +4326,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4203,7 +4334,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4211,7 +4342,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4219,7 +4350,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4227,7 +4358,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4235,7 +4366,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4243,7 +4374,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4251,7 +4382,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4259,7 +4390,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4267,7 +4398,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4275,7 +4406,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4283,7 +4414,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4291,7 +4422,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4299,7 +4430,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4307,7 +4438,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4315,7 +4446,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4323,7 +4454,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4331,7 +4462,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4339,7 +4470,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4347,7 +4478,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4355,7 +4486,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4363,7 +4494,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4371,7 +4502,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4379,7 +4510,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4387,7 +4518,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4395,7 +4526,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4422,13 +4553,13 @@
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -4440,12 +4571,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4457,11 +4588,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4481,7 +4612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4501,7 +4632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4521,7 +4652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43725</v>
       </c>
@@ -4541,7 +4672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43726</v>
       </c>
@@ -4558,10 +4689,10 @@
         <v>120</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>43727</v>
       </c>
@@ -4581,7 +4712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43728</v>
       </c>
@@ -4601,7 +4732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>43729</v>
       </c>
@@ -4621,7 +4752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4629,7 +4760,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4637,7 +4768,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4645,7 +4776,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4653,7 +4784,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4661,7 +4792,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4669,7 +4800,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4677,7 +4808,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4685,7 +4816,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4693,7 +4824,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4701,7 +4832,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4709,7 +4840,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4717,7 +4848,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4725,7 +4856,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4733,7 +4864,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4741,7 +4872,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4749,7 +4880,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4757,7 +4888,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4765,7 +4896,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4773,7 +4904,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4781,7 +4912,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4789,7 +4920,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4797,7 +4928,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4805,7 +4936,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4813,7 +4944,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4821,7 +4952,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4848,13 +4979,13 @@
       <selection activeCell="A8" sqref="A8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4866,12 +4997,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4883,11 +5014,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4907,9 +5038,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>0.875</v>
@@ -4924,12 +5055,12 @@
         <v>90</v>
       </c>
       <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="B7" s="3">
         <v>0.625</v>
@@ -4944,12 +5075,12 @@
         <v>120</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -4964,12 +5095,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -4984,12 +5115,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>0.9375</v>
@@ -5004,12 +5135,12 @@
         <v>180</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>0.91666666666666663</v>
@@ -5024,10 +5155,10 @@
         <v>120</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5035,7 +5166,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5043,7 +5174,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5051,7 +5182,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5059,7 +5190,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5067,7 +5198,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5075,7 +5206,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5083,7 +5214,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5091,7 +5222,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5099,7 +5230,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5107,7 +5238,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5115,7 +5246,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5123,7 +5254,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5131,7 +5262,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5139,7 +5270,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5147,7 +5278,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5155,7 +5286,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5163,7 +5294,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5171,7 +5302,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5179,7 +5310,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5187,7 +5318,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5195,7 +5326,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5203,7 +5334,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5211,7 +5342,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5219,7 +5350,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5227,7 +5358,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5252,29 +5383,29 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -5291,7 +5422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
@@ -5308,7 +5439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5325,10 +5456,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -5338,17 +5469,17 @@
       </c>
       <c r="C7" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>2070</v>
+        <v>2490</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>2070</v>
+        <v>2490</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
@@ -5365,10 +5496,10 @@
         <v>90</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5388,9 +5519,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A10,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
@@ -5405,12 +5536,12 @@
         <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A11,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
@@ -5418,14 +5549,14 @@
       </c>
       <c r="C11" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A11,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4BA4B-DE76-43F9-88C6-F545AF2A0861}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B3BCD-C874-4C0F-AB32-4ECD3777B36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1247,71 +1247,71 @@
   </si>
   <si>
     <t>PSP: Personal Software Process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>팀명: 품앗이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>김혜민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>김백준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박진근</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Activity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이미정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Table C16  Time Recording Log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>정동연</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>탁재인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>주제 선정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>계획서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PMP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Interrupt Time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Delta Time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1340,15 +1340,15 @@
       </rPr>
       <t>선정</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PPT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1397,7 +1397,7 @@
       </rPr>
       <t>준비</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1460,7 +1460,7 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1509,15 +1509,15 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>깃헙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>깃헙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1546,7 +1546,7 @@
       </rPr>
       <t>관리</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1739,7 +1739,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2000,19 +2000,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>계획서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>자료조사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2032,7 +2032,7 @@
       </rPr>
       <t xml:space="preserve"> 모색</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2225,11 +2225,11 @@
       </rPr>
       <t>일</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2244,15 +2244,11 @@
       </rPr>
       <t xml:space="preserve"> 7일</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표 PPT 작성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2349,11 +2345,17 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>자료조사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>계획서</t>
   </si>
 </sst>
 </file>
@@ -2364,11 +2366,19 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2479,20 +2489,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2502,7 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2517,10 +2530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2534,24 +2547,43 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
+    <cellStyle name="20% - 강조색6 2" xfId="4" xr:uid="{DD624336-DD86-45D8-A397-485F1DBDCE65}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2936,20 +2968,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2961,10 +2993,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2976,8 +3008,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +3029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -3018,7 +3050,7 @@
       </c>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43713</v>
       </c>
@@ -3039,7 +3071,7 @@
       </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43714</v>
       </c>
@@ -3059,7 +3091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43715</v>
       </c>
@@ -3079,7 +3111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43717</v>
       </c>
@@ -3099,7 +3131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43725</v>
       </c>
@@ -3119,7 +3151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43726</v>
       </c>
@@ -3139,7 +3171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43727</v>
       </c>
@@ -3159,7 +3191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43728</v>
       </c>
@@ -3176,10 +3208,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43728</v>
       </c>
@@ -3199,7 +3231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43730</v>
       </c>
@@ -3216,10 +3248,10 @@
         <v>120</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43735</v>
       </c>
@@ -3236,10 +3268,10 @@
         <v>180</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43736</v>
       </c>
@@ -3256,10 +3288,10 @@
         <v>120</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3267,7 +3299,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3275,7 +3307,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3283,7 +3315,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3291,7 +3323,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3299,7 +3331,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3307,7 +3339,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3315,7 +3347,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3323,7 +3355,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3331,7 +3363,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3339,7 +3371,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3347,7 +3379,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3355,7 +3387,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3363,7 +3395,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3371,7 +3403,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3379,7 +3411,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3387,7 +3419,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3395,7 +3427,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3403,7 +3435,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3411,7 +3443,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3419,7 +3451,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3428,7 +3460,7 @@
       <c r="F39" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -3446,14 +3478,14 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3465,12 +3497,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3482,11 +3514,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3514,7 +3546,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3522,7 +3554,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3530,7 +3562,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3538,7 +3570,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3546,7 +3578,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3554,7 +3586,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3562,7 +3594,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3570,7 +3602,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3578,7 +3610,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3586,7 +3618,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3594,7 +3626,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3602,7 +3634,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3610,7 +3642,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3618,7 +3650,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3626,7 +3658,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3634,7 +3666,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3642,7 +3674,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3650,7 +3682,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3658,7 +3690,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3666,7 +3698,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3674,7 +3706,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3682,7 +3714,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3690,7 +3722,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3698,7 +3730,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3706,7 +3738,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3714,7 +3746,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3722,7 +3754,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3730,7 +3762,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3738,7 +3770,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3746,7 +3778,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3754,7 +3786,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3762,7 +3794,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3771,7 +3803,7 @@
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
@@ -3786,16 +3818,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3807,12 +3839,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -3824,11 +3856,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3848,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -3868,8 +3900,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3">
@@ -3884,11 +3916,11 @@
       <c r="E7" s="17">
         <v>120</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -3908,7 +3940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -3928,7 +3960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
@@ -3948,7 +3980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3956,7 +3988,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3964,7 +3996,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3972,7 +4004,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3980,7 +4012,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3988,7 +4020,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3996,7 +4028,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4004,7 +4036,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4012,7 +4044,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4020,7 +4052,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4028,7 +4060,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4036,7 +4068,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4044,7 +4076,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4052,7 +4084,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4060,7 +4092,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4068,7 +4100,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4076,7 +4108,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4084,7 +4116,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4092,7 +4124,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4100,7 +4132,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4108,7 +4140,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4116,7 +4148,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4124,7 +4156,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4132,7 +4164,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4140,7 +4172,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4148,7 +4180,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4156,7 +4188,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4164,7 +4196,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4173,7 +4205,7 @@
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
@@ -4188,16 +4220,16 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4209,12 +4241,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4226,11 +4258,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4270,7 +4302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4290,7 +4322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43715</v>
       </c>
@@ -4310,71 +4342,155 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>43717</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>150</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>43725</v>
+      </c>
+      <c r="B10" s="31">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>120</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.8125</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
+        <v>30</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>60</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>43728</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
+        <v>120</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>43730</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36">
+        <v>120</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>43735</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <v>120</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4382,7 +4498,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4390,7 +4506,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4398,7 +4514,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4406,7 +4522,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4414,7 +4530,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4422,7 +4538,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4430,7 +4546,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4438,7 +4554,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4446,7 +4562,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4454,7 +4570,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4462,7 +4578,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4470,7 +4586,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4478,7 +4594,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4486,7 +4602,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4494,7 +4610,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4502,7 +4618,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4510,7 +4626,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4518,7 +4634,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4526,7 +4642,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4535,7 +4651,7 @@
       <c r="F36" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
@@ -4550,16 +4666,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -4571,12 +4687,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -4588,11 +4704,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43713</v>
       </c>
@@ -4632,7 +4748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43714</v>
       </c>
@@ -4652,7 +4768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43725</v>
       </c>
@@ -4672,7 +4788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43726</v>
       </c>
@@ -4692,7 +4808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43727</v>
       </c>
@@ -4712,7 +4828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43728</v>
       </c>
@@ -4732,7 +4848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43729</v>
       </c>
@@ -4752,7 +4868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4760,7 +4876,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4768,7 +4884,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4776,7 +4892,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4784,7 +4900,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4792,7 +4908,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4800,7 +4916,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4808,7 +4924,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4816,7 +4932,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4824,7 +4940,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4832,7 +4948,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4840,7 +4956,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4848,7 +4964,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4856,7 +4972,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4864,7 +4980,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4872,7 +4988,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4880,7 +4996,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4888,7 +5004,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4896,7 +5012,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4904,7 +5020,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4912,7 +5028,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4920,7 +5036,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4928,7 +5044,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4936,7 +5052,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4944,7 +5060,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4952,7 +5068,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4961,7 +5077,7 @@
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
@@ -4976,16 +5092,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4997,12 +5113,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -5014,11 +5130,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -5038,7 +5154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
@@ -5058,7 +5174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -5078,7 +5194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5098,7 +5214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -5118,7 +5234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
@@ -5138,7 +5254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -5158,7 +5274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5166,7 +5282,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5174,7 +5290,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5182,7 +5298,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5190,7 +5306,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5198,7 +5314,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5206,7 +5322,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5214,7 +5330,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5222,7 +5338,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5230,7 +5346,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5238,7 +5354,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5246,7 +5362,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5254,7 +5370,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5262,7 +5378,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5270,7 +5386,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5278,7 +5394,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5286,7 +5402,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5294,7 +5410,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5302,7 +5418,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5310,7 +5426,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5318,7 +5434,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5326,7 +5442,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5334,7 +5450,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5342,7 +5458,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5350,7 +5466,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5358,7 +5474,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5367,7 +5483,7 @@
       <c r="F37" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -5382,30 +5498,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -5422,7 +5538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
@@ -5439,7 +5555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5459,7 +5575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
@@ -5469,17 +5585,17 @@
       </c>
       <c r="C7" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>2490</v>
+        <v>3030</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>2490</v>
+        <v>3030</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
@@ -5489,37 +5605,37 @@
       </c>
       <c r="C8" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A9,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9" s="25">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A9,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
@@ -5539,7 +5655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
@@ -5560,7 +5676,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B3BCD-C874-4C0F-AB32-4ECD3777B36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D96C2-80BB-40B2-ACC5-62E2B96EE3E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="2250" windowWidth="9640" windowHeight="7060" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1314,35 +1314,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선정</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1351,201 +1322,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PPT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or PPT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준비</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>깃헙</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>깃헙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>깃헙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2016,26 +1797,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>아이디어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 모색</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>9</t>
     </r>
     <r>
@@ -2248,103 +2009,6 @@
   </si>
   <si>
     <t>회의</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다큐멘테이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2357,6 +2021,404 @@
   <si>
     <t>계획서</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다큐멘테이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or PPT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아이디어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모색</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2366,7 +2428,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2449,6 +2511,14 @@
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2554,10 +2624,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2580,6 +2647,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3128,7 +3198,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3217,7 @@
       <c r="E11" s="18">
         <v>120</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3168,7 +3238,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,7 +3258,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3208,7 +3278,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -3228,7 +3298,7 @@
         <v>210</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3318,7 @@
         <v>120</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,7 +3338,7 @@
         <v>180</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3358,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,8 +3971,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>49</v>
+      <c r="A7" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="3">
         <v>0.75</v>
@@ -3916,13 +3986,13 @@
       <c r="E7" s="17">
         <v>120</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>53</v>
+      <c r="F7" s="27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -3937,12 +4007,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -3957,12 +4027,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6">
         <v>0.9375</v>
@@ -3976,8 +4046,8 @@
       <c r="E10" s="18">
         <v>180</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>43</v>
+      <c r="F10" s="24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
@@ -4219,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4339,172 +4409,208 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>43717</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="29">
         <v>0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <v>150</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>53</v>
+      <c r="F9" s="27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>43725</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>0.875</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <v>120</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>43</v>
+      <c r="F10" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>43726</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="33">
         <v>30</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>54</v>
+      <c r="F11" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>43727</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="33">
         <v>60</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>43</v>
+      <c r="F12" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>43728</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <v>0</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <v>120</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>43</v>
+      <c r="F13" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>43730</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="29">
         <v>0</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="33">
         <v>120</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>43735</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>0.625</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="33">
         <v>120</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
+      <c r="A16" s="31">
+        <v>43738</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C16" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
+        <v>60</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>43739</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D17" s="9">
+        <v>30</v>
+      </c>
+      <c r="E17" s="17">
+        <v>150</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>43739</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>30</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -4805,7 +4911,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
@@ -5156,7 +5262,7 @@
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>0.875</v>
@@ -5171,12 +5277,12 @@
         <v>90</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <v>0.625</v>
@@ -5191,12 +5297,12 @@
         <v>120</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -5211,12 +5317,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -5231,12 +5337,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6">
         <v>0.9375</v>
@@ -5250,13 +5356,13 @@
       <c r="E10" s="18">
         <v>180</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>43</v>
+      <c r="F10" s="24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>0.91666666666666663</v>
@@ -5271,7 +5377,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5496,10 +5602,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5513,81 +5619,82 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="A4" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>26</v>
+      <c r="E4" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="25">
+        <v>49</v>
+      </c>
+      <c r="B5" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A5,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
         <v>150</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A5,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
         <v>450</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="38">
         <f t="shared" ref="D5:D11" si="0">C5-B5</f>
         <v>300</v>
       </c>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A6,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A6,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
+      <c r="E6" s="39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A7,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
         <v>3030</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="38">
         <f t="shared" si="0"/>
         <v>3030</v>
       </c>
@@ -5599,80 +5706,100 @@
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A8,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
         <v>120</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="38">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A9,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
         <v>30</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A9,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
         <v>420</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="38">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
+      <c r="E9" s="39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="25">
+        <v>28</v>
+      </c>
+      <c r="B10" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A10,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A10,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
         <v>30</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="38">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="25">
+        <v>33</v>
+      </c>
+      <c r="B11" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A11,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
         <v>30</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="38">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A11,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
         <v>180</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>39</v>
+      <c r="E11" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="38">
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A12,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
+        <v>30</v>
+      </c>
+      <c r="C12" s="38">
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A12,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
+        <v>240</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" ref="D12" si="1">C12-B12</f>
+        <v>210</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D96C2-80BB-40B2-ACC5-62E2B96EE3E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC19DE-1045-4B10-AC8B-2EE2DBE84888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2250" windowWidth="9640" windowHeight="7060" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1656" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1209,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2417,6 +2418,44 @@
   </si>
   <si>
     <t>프로토타이핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 21일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획서 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 28일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecase outline 내용 추가</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2573,7 +2612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2583,7 +2622,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2650,6 +2688,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3042,65 +3089,65 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>43713</v>
       </c>
       <c r="B6" s="3">
@@ -3109,19 +3156,19 @@
       <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43713</v>
       </c>
       <c r="B7" s="3">
@@ -3130,19 +3177,19 @@
       <c r="C7" s="3">
         <v>0.95138888888888884</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43714</v>
       </c>
       <c r="B8" s="3">
@@ -3151,18 +3198,18 @@
       <c r="C8" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>120</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>43715</v>
       </c>
       <c r="B9" s="3">
@@ -3171,18 +3218,18 @@
       <c r="C9" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>30</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>43717</v>
       </c>
       <c r="B10" s="3">
@@ -3191,10 +3238,10 @@
       <c r="C10" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3202,27 +3249,27 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>43725</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.875</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>120</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>43726</v>
       </c>
       <c r="B12" s="3">
@@ -3231,18 +3278,18 @@
       <c r="C12" s="3">
         <v>0.8125</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>43727</v>
       </c>
       <c r="B13" s="3">
@@ -3251,18 +3298,18 @@
       <c r="C13" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>60</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>43728</v>
       </c>
       <c r="B14" s="3">
@@ -3271,18 +3318,18 @@
       <c r="C14" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>60</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>43728</v>
       </c>
       <c r="B15" s="3">
@@ -3291,18 +3338,18 @@
       <c r="C15" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>210</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>43730</v>
       </c>
       <c r="B16" s="3">
@@ -3311,18 +3358,18 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>120</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>43735</v>
       </c>
       <c r="B17" s="3">
@@ -3331,18 +3378,18 @@
       <c r="C17" s="3">
         <v>0.75</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>180</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>43736</v>
       </c>
       <c r="B18" s="3">
@@ -3351,182 +3398,182 @@
       <c r="C18" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>120</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
   </sheetData>
@@ -3544,332 +3591,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>43713</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="28">
+        <v>30</v>
+      </c>
+      <c r="E6" s="32">
+        <v>90</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>43714</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>120</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>43725</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>120</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>43726</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.8125</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>30</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>43727</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>60</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43728</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>120</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="39">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D12" s="28">
+        <v>20</v>
+      </c>
+      <c r="E12" s="32">
+        <v>90</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43730</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>120</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="28">
+        <v>20</v>
+      </c>
+      <c r="E15" s="32">
+        <v>60</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -3891,67 +4058,67 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43713</v>
       </c>
       <c r="B6" s="3">
@@ -3960,18 +4127,18 @@
       <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="3">
@@ -3980,18 +4147,18 @@
       <c r="C7" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>30</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>120</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="3">
@@ -4000,18 +4167,18 @@
       <c r="C8" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>120</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="3">
@@ -4020,258 +4187,258 @@
       <c r="C9" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>180</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -4293,67 +4460,67 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7265625" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43713</v>
       </c>
       <c r="B6" s="3">
@@ -4362,18 +4529,18 @@
       <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>43714</v>
       </c>
       <c r="B7" s="3">
@@ -4382,18 +4549,18 @@
       <c r="C7" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>120</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>43715</v>
       </c>
       <c r="B8" s="3">
@@ -4402,178 +4569,178 @@
       <c r="C8" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>30</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>43717</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>150</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>43725</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>0.875</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>0</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>120</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>43726</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>30</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>43727</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>60</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>43728</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>120</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>43730</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>0</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>0</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>120</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
         <v>43735</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.625</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>120</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>43738</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>60</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>43739</v>
       </c>
       <c r="B17" s="3">
@@ -4582,18 +4749,18 @@
       <c r="C17" s="3">
         <v>0.125</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>30</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>150</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>43739</v>
       </c>
       <c r="B18" s="3">
@@ -4602,158 +4769,158 @@
       <c r="C18" s="3">
         <v>0.375</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>30</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
   </sheetData>
@@ -4775,67 +4942,67 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43713</v>
       </c>
       <c r="B6" s="3">
@@ -4844,18 +5011,18 @@
       <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>43714</v>
       </c>
       <c r="B7" s="3">
@@ -4864,18 +5031,18 @@
       <c r="C7" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>120</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>43725</v>
       </c>
       <c r="B8" s="3">
@@ -4884,18 +5051,18 @@
       <c r="C8" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>120</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>43726</v>
       </c>
       <c r="B9" s="3">
@@ -4904,18 +5071,18 @@
       <c r="C9" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>30</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>120</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>43727</v>
       </c>
       <c r="B10" s="3">
@@ -4924,18 +5091,18 @@
       <c r="C10" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>60</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>43728</v>
       </c>
       <c r="B11" s="3">
@@ -4944,18 +5111,18 @@
       <c r="C11" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>180</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>43729</v>
       </c>
       <c r="B12" s="3">
@@ -4964,10 +5131,10 @@
       <c r="C12" s="3">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -4975,211 +5142,211 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -5201,67 +5368,67 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="39.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3">
@@ -5270,18 +5437,18 @@
       <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="3">
@@ -5290,18 +5457,18 @@
       <c r="C7" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>120</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="3">
@@ -5310,18 +5477,18 @@
       <c r="C8" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>120</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="3">
@@ -5330,38 +5497,38 @@
       <c r="C9" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>60</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>180</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3">
@@ -5370,222 +5537,222 @@
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>120</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
   </sheetData>
@@ -5604,201 +5771,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A5,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
-        <v>150</v>
-      </c>
-      <c r="C5" s="38">
+        <v>180</v>
+      </c>
+      <c r="C5" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A5,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
-        <v>450</v>
-      </c>
-      <c r="D5" s="38">
+        <v>540</v>
+      </c>
+      <c r="D5" s="37">
         <f t="shared" ref="D5:D11" si="0">C5-B5</f>
-        <v>300</v>
-      </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A6,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A6,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A7,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>3030</v>
-      </c>
-      <c r="D7" s="38">
+        <v>3690</v>
+      </c>
+      <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>3030</v>
-      </c>
-      <c r="E7" s="21" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A8,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
-        <v>120</v>
-      </c>
-      <c r="D8" s="38">
+        <v>150</v>
+      </c>
+      <c r="D8" s="37">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A9,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
         <v>30</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A9,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
         <v>420</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A10,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A10,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
         <v>30</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A11,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
         <v>30</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A11,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
         <v>180</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A12,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
         <v>30</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A12,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
         <v>240</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f t="shared" ref="D12" si="1">C12-B12</f>
         <v>210</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>48</v>
       </c>
     </row>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC19DE-1045-4B10-AC8B-2EE2DBE84888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605F059-A17C-4097-A766-EB80BE4D74C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1656" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1210,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2456,6 +2455,191 @@
   </si>
   <si>
     <t>usecase outline 내용 추가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐멘테이션 정리 및 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다큐멘테이션의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다큐멘테이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2612,7 +2796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2697,6 +2881,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3086,19 +3272,19 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3110,10 +3296,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3125,8 +3311,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3146,7 +3332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3167,7 +3353,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3188,7 +3374,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3208,7 +3394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3228,7 +3414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3248,7 +3434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3268,7 +3454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3288,7 +3474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3308,7 +3494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>43728</v>
       </c>
@@ -3328,7 +3514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3348,7 +3534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43730</v>
       </c>
@@ -3368,7 +3554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43735</v>
       </c>
@@ -3388,7 +3574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43736</v>
       </c>
@@ -3408,23 +3594,47 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>150</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>43745</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>30</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3432,7 +3642,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3440,7 +3650,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3448,7 +3658,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3456,7 +3666,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3464,7 +3674,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3472,7 +3682,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3480,7 +3690,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3488,7 +3698,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3496,7 +3706,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3504,7 +3714,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3512,7 +3722,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3520,7 +3730,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3528,7 +3738,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3536,7 +3746,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3544,7 +3754,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3552,7 +3762,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3560,7 +3770,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3568,7 +3778,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3591,18 +3801,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3614,12 +3824,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3631,11 +3841,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3655,7 +3865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>43713</v>
       </c>
@@ -3675,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>43714</v>
       </c>
@@ -3695,7 +3905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>43725</v>
       </c>
@@ -3715,7 +3925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43726</v>
       </c>
@@ -3735,7 +3945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>43727</v>
       </c>
@@ -3755,7 +3965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43728</v>
       </c>
@@ -3775,7 +3985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
@@ -3795,7 +4005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43730</v>
       </c>
@@ -3815,7 +4025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43735</v>
       </c>
@@ -3835,7 +4045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>59</v>
       </c>
@@ -3855,7 +4065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3863,7 +4073,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3871,7 +4081,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3879,7 +4089,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3887,7 +4097,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3895,7 +4105,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3903,7 +4113,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3911,7 +4121,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3919,7 +4129,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3927,7 +4137,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3935,7 +4145,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3943,7 +4153,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3951,7 +4161,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3959,7 +4169,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3967,7 +4177,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3975,7 +4185,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3983,7 +4193,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3991,7 +4201,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3999,7 +4209,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4007,7 +4217,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4015,7 +4225,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4023,7 +4233,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4031,7 +4241,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4058,13 +4268,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4076,12 +4286,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4093,11 +4303,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4117,7 +4327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4137,7 +4347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4157,7 +4367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4177,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4197,7 +4407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4217,7 +4427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4225,7 +4435,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4233,7 +4443,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4241,7 +4451,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4249,7 +4459,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4257,7 +4467,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4265,7 +4475,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4273,7 +4483,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4281,7 +4491,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4289,7 +4499,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4297,7 +4507,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4305,7 +4515,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4313,7 +4523,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4321,7 +4531,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4329,7 +4539,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4337,7 +4547,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4345,7 +4555,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4353,7 +4563,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4361,7 +4571,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4369,7 +4579,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4377,7 +4587,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4385,7 +4595,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4393,7 +4603,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4401,7 +4611,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4409,7 +4619,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4417,7 +4627,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4425,7 +4635,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4433,7 +4643,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4460,13 +4670,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4478,12 +4688,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4495,11 +4705,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4519,7 +4729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4539,7 +4749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -4559,7 +4769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -4579,7 +4789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -4599,7 +4809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -4619,7 +4829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -4639,7 +4849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -4659,7 +4869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -4679,7 +4889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -4699,7 +4909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -4719,7 +4929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -4739,7 +4949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -4759,7 +4969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -4779,7 +4989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4787,7 +4997,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4795,7 +5005,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4803,7 +5013,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4811,7 +5021,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4819,7 +5029,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4827,7 +5037,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4835,7 +5045,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4843,7 +5053,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4851,7 +5061,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4859,7 +5069,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4867,7 +5077,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4875,7 +5085,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4883,7 +5093,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4891,7 +5101,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4899,7 +5109,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4907,7 +5117,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4915,7 +5125,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4942,13 +5152,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -4960,12 +5170,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4977,11 +5187,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +5211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5021,7 +5231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5041,7 +5251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5061,7 +5271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5081,7 +5291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5101,7 +5311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>43728</v>
       </c>
@@ -5121,7 +5331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43729</v>
       </c>
@@ -5141,7 +5351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5149,7 +5359,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5157,7 +5367,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5165,7 +5375,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5173,7 +5383,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5181,7 +5391,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5189,7 +5399,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5197,7 +5407,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5205,7 +5415,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5213,7 +5423,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5221,7 +5431,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5229,7 +5439,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5237,7 +5447,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5245,7 +5455,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5253,7 +5463,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5261,7 +5471,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5269,7 +5479,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5277,7 +5487,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5285,7 +5495,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5293,7 +5503,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5301,7 +5511,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5309,7 +5519,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5317,7 +5527,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5325,7 +5535,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5333,7 +5543,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5341,7 +5551,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5368,13 +5578,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5386,12 +5596,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5403,11 +5613,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5427,7 +5637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -5447,7 +5657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -5467,7 +5677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5487,7 +5697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5507,7 +5717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5527,7 +5737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -5547,7 +5757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5555,7 +5765,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5563,7 +5773,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5571,7 +5781,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5579,7 +5789,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5587,7 +5797,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5595,7 +5805,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5603,7 +5813,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5611,7 +5821,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5619,7 +5829,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5627,7 +5837,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5635,7 +5845,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5643,7 +5853,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5651,7 +5861,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5659,7 +5869,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5667,7 +5877,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5675,7 +5885,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5683,7 +5893,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5691,7 +5901,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5699,7 +5909,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5707,7 +5917,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5715,7 +5925,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5723,7 +5933,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5731,7 +5941,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5739,7 +5949,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5747,7 +5957,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5769,32 +5979,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -5811,7 +6021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -5829,7 +6039,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -5849,7 +6059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -5859,17 +6069,17 @@
       </c>
       <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>3690</v>
+        <v>3840</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>3690</v>
+        <v>3840</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -5889,7 +6099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -5909,7 +6119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -5929,7 +6139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -5949,7 +6159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -5962,11 +6172,31 @@
         <v>240</v>
       </c>
       <c r="D12" s="37">
-        <f t="shared" ref="D12" si="1">C12-B12</f>
+        <f t="shared" ref="D12:D13" si="1">C12-B12</f>
         <v>210</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A13,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A13,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605F059-A17C-4097-A766-EB80BE4D74C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FF1F7-154E-403A-BC51-58C031A68867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2640,6 +2640,10 @@
       </rPr>
       <t>수정</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3269,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3495,80 +3499,80 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="30">
         <v>43728</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>60</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>5</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
       <c r="B15" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C15" s="3">
-        <v>6.25E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>43730</v>
+        <v>43728</v>
       </c>
       <c r="B16" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="16">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <v>43735</v>
+        <v>43730</v>
       </c>
       <c r="B17" s="3">
-        <v>0.625</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C17" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>44</v>
@@ -3576,19 +3580,19 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B18" s="3">
         <v>0.625</v>
       </c>
       <c r="C18" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="16">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>44</v>
@@ -3596,75 +3600,123 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>43742</v>
+        <v>43736</v>
       </c>
       <c r="B19" s="3">
         <v>0.625</v>
       </c>
       <c r="C19" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>120</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>43736</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>10</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
         <v>150</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
         <v>43745</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B22" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>43745</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C23" s="3">
         <v>0.8125</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
         <v>30</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F23" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>43747</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
@@ -3672,9 +3724,9 @@
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3698,7 +3750,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3706,7 +3758,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3767,24 +3819,48 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5981,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6049,11 +6125,11 @@
       </c>
       <c r="C6" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A6,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D6" s="37">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>50</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FF1F7-154E-403A-BC51-58C031A68867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744F67A-F35B-4F77-A831-1791D7FA62F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2644,6 +2644,22 @@
   </si>
   <si>
     <t>PMP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3276,7 +3292,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3719,20 +3735,44 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="13">
+        <v>43748</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>150</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="13">
+        <v>43749</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>210</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
@@ -6055,10 +6095,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6145,11 +6185,11 @@
       </c>
       <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>3840</v>
+        <v>3990</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>3990</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>51</v>
@@ -6273,6 +6313,22 @@
       </c>
       <c r="E13" s="42" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A14,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A14,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
+        <v>210</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744F67A-F35B-4F77-A831-1791D7FA62F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2054A4-975D-6C4C-8CE4-EA6C6393D470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1209,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2661,6 +2662,66 @@
   <si>
     <t>회의</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 20일</t>
+  </si>
+  <si>
+    <t>180 </t>
+  </si>
+  <si>
+    <t>9월 21일</t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>9월 22일</t>
+  </si>
+  <si>
+    <t>120 </t>
+  </si>
+  <si>
+    <t>9월 27일</t>
+  </si>
+  <si>
+    <t>9월 28일</t>
+  </si>
+  <si>
+    <t>10월 4일</t>
+  </si>
+  <si>
+    <t>150 </t>
+  </si>
+  <si>
+    <t>10월 9일</t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>자료조사</t>
+  </si>
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
+    <t>다큐멘테이션 정리 및 수정</t>
+  </si>
+  <si>
+    <t>10월 11일</t>
+  </si>
+  <si>
+    <t>240 </t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>10월 12일</t>
+  </si>
+  <si>
+    <t>10월 13일</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2732,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3291,20 +3352,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3316,10 +3377,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3331,8 +3392,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +3413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3373,7 +3434,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3394,7 +3455,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3414,7 +3475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3434,7 +3495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3454,7 +3515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3474,7 +3535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3494,7 +3555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3514,7 +3575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3534,7 +3595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3554,7 +3615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3574,7 +3635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3594,7 +3655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3614,7 +3675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3634,7 +3695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3654,7 +3715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3674,7 +3735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3694,7 +3755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3714,7 +3775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3734,7 +3795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -3754,7 +3815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -3774,7 +3835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3782,7 +3843,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3790,7 +3851,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3798,7 +3859,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3806,7 +3867,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3814,7 +3875,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3822,7 +3883,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3830,7 +3891,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3838,7 +3899,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3846,7 +3907,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3854,7 +3915,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3862,7 +3923,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3870,7 +3931,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3878,7 +3939,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3886,7 +3947,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3894,7 +3955,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3921,14 +3982,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3940,12 +4001,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3957,11 +4018,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3981,7 +4042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="30">
         <v>43713</v>
       </c>
@@ -4001,7 +4062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="30">
         <v>43714</v>
       </c>
@@ -4021,7 +4082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="30">
         <v>43725</v>
       </c>
@@ -4041,7 +4102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="30">
         <v>43726</v>
       </c>
@@ -4061,7 +4122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="30">
         <v>43727</v>
       </c>
@@ -4081,7 +4142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43728</v>
       </c>
@@ -4101,7 +4162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
@@ -4121,7 +4182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43730</v>
       </c>
@@ -4141,7 +4202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43735</v>
       </c>
@@ -4161,7 +4222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="24" t="s">
         <v>59</v>
       </c>
@@ -4181,7 +4242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4189,7 +4250,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4197,7 +4258,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4205,7 +4266,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4213,7 +4274,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4221,7 +4282,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4229,7 +4290,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4237,7 +4298,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4245,7 +4306,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4253,7 +4314,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4261,7 +4322,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4269,7 +4330,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4277,7 +4338,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4285,7 +4346,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4293,7 +4354,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4301,7 +4362,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4309,7 +4370,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4317,7 +4378,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4325,7 +4386,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4333,7 +4394,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4341,7 +4402,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4349,7 +4410,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4357,7 +4418,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4384,13 +4445,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4402,12 +4463,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4419,11 +4480,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4463,7 +4524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4483,7 +4544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4503,7 +4564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4523,7 +4584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4543,7 +4604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4551,7 +4612,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4559,7 +4620,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4567,7 +4628,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4575,7 +4636,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4583,7 +4644,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4591,7 +4652,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4599,7 +4660,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4607,7 +4668,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4615,7 +4676,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4623,7 +4684,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4631,7 +4692,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4639,7 +4700,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4647,7 +4708,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4655,7 +4716,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4663,7 +4724,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4671,7 +4732,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4679,7 +4740,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4687,7 +4748,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4695,7 +4756,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4703,7 +4764,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4711,7 +4772,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4719,7 +4780,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4727,7 +4788,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4735,7 +4796,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4743,7 +4804,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4751,7 +4812,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4759,7 +4820,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4786,13 +4847,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4804,12 +4865,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4821,11 +4882,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4845,7 +4906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4865,7 +4926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -4885,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -4905,7 +4966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -4925,7 +4986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -4945,7 +5006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -4965,7 +5026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -4985,7 +5046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5005,7 +5066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5025,7 +5086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5045,7 +5106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5065,7 +5126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5085,7 +5146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5105,7 +5166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5113,7 +5174,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5121,7 +5182,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5129,7 +5190,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5137,7 +5198,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5145,7 +5206,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5153,7 +5214,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5161,7 +5222,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5169,7 +5230,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5177,7 +5238,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5185,7 +5246,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5193,7 +5254,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5201,7 +5262,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5209,7 +5270,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5217,7 +5278,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5225,7 +5286,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5233,7 +5294,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5241,7 +5302,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5264,17 +5325,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5286,12 +5347,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5303,11 +5364,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5327,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5347,7 +5408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5367,7 +5428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5387,7 +5448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5407,7 +5468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5427,9 +5488,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>43728</v>
+    <row r="11" spans="1:6" ht="14">
+      <c r="A11" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="3">
         <v>0.9375</v>
@@ -5440,16 +5501,16 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
-        <v>180</v>
+      <c r="E11" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>43729</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="B12" s="3">
         <v>0.70138888888888884</v>
@@ -5460,94 +5521,214 @@
       <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
-        <v>30</v>
+      <c r="E12" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14">
+      <c r="A18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14">
+      <c r="A21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5555,7 +5736,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5563,7 +5744,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5571,7 +5752,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5579,7 +5760,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5587,7 +5768,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5595,7 +5776,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5603,7 +5784,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5611,7 +5792,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5619,7 +5800,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5627,7 +5808,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5635,7 +5816,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5643,7 +5824,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5651,7 +5832,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5659,7 +5840,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5667,7 +5848,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5694,13 +5875,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5712,12 +5893,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5729,11 +5910,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5753,7 +5934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -5773,7 +5954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -5793,7 +5974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5813,7 +5994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5833,7 +6014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5853,7 +6034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -5873,7 +6054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5881,7 +6062,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5889,7 +6070,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5897,7 +6078,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5905,7 +6086,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5913,7 +6094,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5921,7 +6102,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5929,7 +6110,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5937,7 +6118,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5945,7 +6126,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5953,7 +6134,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5961,7 +6142,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5969,7 +6150,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5977,7 +6158,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5985,7 +6166,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5993,7 +6174,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6001,7 +6182,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6009,7 +6190,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6017,7 +6198,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6025,7 +6206,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6033,7 +6214,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6041,7 +6222,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6049,7 +6230,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6057,7 +6238,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6065,7 +6246,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6073,7 +6254,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6101,26 +6282,26 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6137,7 +6318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6155,7 +6336,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6175,7 +6356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6185,17 +6366,17 @@
       </c>
       <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>3990</v>
+        <v>3810</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>3990</v>
+        <v>3810</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6205,17 +6386,17 @@
       </c>
       <c r="C8" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D8" s="37">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6235,7 +6416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6255,7 +6436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6275,7 +6456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6295,7 +6476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
@@ -6315,7 +6496,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>66</v>
       </c>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2054A4-975D-6C4C-8CE4-EA6C6393D470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BABC21-7EB6-44B0-8095-2EDF549C0163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1210,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2732,7 +2731,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3352,20 +3351,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3377,10 +3376,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3392,8 +3391,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3434,7 +3433,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3455,7 +3454,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3843,7 +3842,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3851,7 +3850,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3859,7 +3858,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3867,7 +3866,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3875,7 +3874,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3883,7 +3882,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3891,7 +3890,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3899,7 +3898,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3907,7 +3906,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3915,7 +3914,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3923,7 +3922,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3931,7 +3930,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3939,7 +3938,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3947,7 +3946,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3955,7 +3954,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3982,14 +3981,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4001,12 +4000,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4018,11 +4017,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>43713</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>43714</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>43725</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43726</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>43727</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43728</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43730</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43735</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>59</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4250,7 +4249,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4258,7 +4257,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4266,7 +4265,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4274,7 +4273,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4282,7 +4281,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4290,7 +4289,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4298,7 +4297,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4306,7 +4305,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4314,7 +4313,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4322,7 +4321,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4330,7 +4329,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4338,7 +4337,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4346,7 +4345,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4354,7 +4353,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4362,7 +4361,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4370,7 +4369,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4378,7 +4377,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4386,7 +4385,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4394,7 +4393,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4402,7 +4401,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4410,7 +4409,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4418,7 +4417,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4445,13 +4444,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4463,12 +4462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4480,11 +4479,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4612,7 +4611,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4620,7 +4619,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4628,7 +4627,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4636,7 +4635,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4644,7 +4643,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4652,7 +4651,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4660,7 +4659,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4668,7 +4667,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4676,7 +4675,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4684,7 +4683,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4692,7 +4691,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4700,7 +4699,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4708,7 +4707,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4716,7 +4715,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4724,7 +4723,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4732,7 +4731,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4740,7 +4739,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4748,7 +4747,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4756,7 +4755,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4764,7 +4763,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4772,7 +4771,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4780,7 +4779,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4788,7 +4787,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4796,7 +4795,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4804,7 +4803,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4812,7 +4811,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4820,7 +4819,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4841,19 +4840,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4865,12 +4865,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4882,11 +4882,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5166,31 +5166,67 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43742</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>150</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>43744</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>120</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>150</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5198,7 +5234,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5206,7 +5242,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5214,7 +5250,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5222,7 +5258,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5230,7 +5266,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5238,7 +5274,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5246,7 +5282,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5254,7 +5290,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5262,7 +5298,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5270,7 +5306,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5278,7 +5314,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5286,29 +5322,37 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5325,17 +5369,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5347,12 +5391,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5364,11 +5408,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5408,7 +5452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5428,7 +5472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5448,7 +5492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5468,7 +5512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5488,7 +5532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>70</v>
       </c>
@@ -5508,7 +5552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>72</v>
       </c>
@@ -5528,7 +5572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
@@ -5548,7 +5592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>76</v>
       </c>
@@ -5568,7 +5612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>77</v>
       </c>
@@ -5588,7 +5632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>78</v>
       </c>
@@ -5608,7 +5652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>80</v>
       </c>
@@ -5628,7 +5672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>83</v>
       </c>
@@ -5648,7 +5692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>83</v>
       </c>
@@ -5668,7 +5712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>85</v>
       </c>
@@ -5688,7 +5732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>88</v>
       </c>
@@ -5708,7 +5752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>89</v>
       </c>
@@ -5728,7 +5772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5736,7 +5780,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5744,7 +5788,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5752,7 +5796,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5760,7 +5804,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5768,7 +5812,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5776,7 +5820,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5784,7 +5828,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5792,7 +5836,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5800,7 +5844,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5808,7 +5852,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5816,7 +5860,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5824,7 +5868,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5832,7 +5876,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5840,7 +5884,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5848,7 +5892,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5875,13 +5919,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5893,12 +5937,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5910,11 +5954,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5934,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -5954,7 +5998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -5974,7 +6018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5994,7 +6038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6014,7 +6058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6034,7 +6078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6054,7 +6098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6062,7 +6106,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6070,7 +6114,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6078,7 +6122,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6086,7 +6130,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6094,7 +6138,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6102,7 +6146,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6110,7 +6154,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6118,7 +6162,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6126,7 +6170,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6134,7 +6178,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6142,7 +6186,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6150,7 +6194,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6158,7 +6202,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6166,7 +6210,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6174,7 +6218,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6182,7 +6226,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6190,7 +6234,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6198,7 +6242,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6206,7 +6250,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6214,7 +6258,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6222,7 +6266,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6230,7 +6274,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6238,7 +6282,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6246,7 +6290,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6254,7 +6298,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6278,30 +6322,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6318,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6336,7 +6380,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6356,7 +6400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6366,17 +6410,17 @@
       </c>
       <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>3810</v>
+        <v>4110</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>3810</v>
+        <v>4110</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6396,7 +6440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6416,7 +6460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6436,7 +6480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6456,7 +6500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6476,7 +6520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
@@ -6486,17 +6530,17 @@
       </c>
       <c r="C13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A13,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>66</v>
       </c>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\서강\7학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BABC21-7EB6-44B0-8095-2EDF549C0163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85E2949-737D-40C1-AEA8-695973089EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1209,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="95">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2420,40 +2421,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 21일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>계획서 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 28일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>usecase outline 내용 추가</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2721,6 +2692,98 @@
   </si>
   <si>
     <t>10월 13일</t>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 21일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 28일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 10일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>25일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀로 웹크롤링 해오기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial data set 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2731,7 +2794,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2823,6 +2886,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2876,7 +2962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2963,6 +3049,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3355,16 +3446,16 @@
       <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3376,10 +3467,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3391,8 +3482,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3591,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3711,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,7 +3822,7 @@
         <v>150</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3751,10 +3842,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3771,7 +3862,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,7 +3882,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3902,7 @@
         <v>150</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3922,7 @@
         <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,18 +4068,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4096,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4021,7 +4112,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4041,8 +4132,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
         <v>43713</v>
       </c>
       <c r="B6" s="25">
@@ -4061,8 +4152,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
         <v>43714</v>
       </c>
       <c r="B7" s="25">
@@ -4081,8 +4172,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>43725</v>
       </c>
       <c r="B8" s="25">
@@ -4101,8 +4192,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
         <v>43726</v>
       </c>
       <c r="B9" s="25">
@@ -4121,8 +4212,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>43727</v>
       </c>
       <c r="B10" s="25">
@@ -4141,8 +4232,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
         <v>43728</v>
       </c>
       <c r="B11" s="25">
@@ -4161,9 +4252,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>57</v>
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="39">
         <v>0</v>
@@ -4178,11 +4269,11 @@
         <v>90</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>43730</v>
       </c>
       <c r="B13" s="25">
@@ -4201,8 +4292,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>43735</v>
       </c>
       <c r="B14" s="25">
@@ -4221,9 +4312,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>59</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="B15" s="39">
         <v>0.66666666666666663</v>
@@ -4238,50 +4329,110 @@
         <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>43742</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>150</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>150</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>70</v>
+      </c>
+      <c r="E18" s="16">
+        <v>110</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="E19" s="16">
+        <v>120</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>80</v>
+      </c>
+      <c r="E20" s="16">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4444,13 +4595,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4467,7 +4618,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4483,7 +4634,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4503,7 +4654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4523,7 +4674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4543,7 +4694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4563,7 +4714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4583,7 +4734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4603,7 +4754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4659,7 +4810,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4683,7 +4834,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4843,17 +4994,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4870,7 +5021,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4886,7 +5037,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4906,7 +5057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4926,7 +5077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -4946,7 +5097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -4986,7 +5137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5006,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5026,7 +5177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5046,7 +5197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5066,7 +5217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5086,7 +5237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5106,7 +5257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5126,7 +5277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5146,7 +5297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5166,7 +5317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5186,7 +5337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5203,10 +5354,10 @@
         <v>120</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5373,13 +5524,13 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5396,7 +5547,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5412,7 +5563,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5432,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5452,7 +5603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5472,7 +5623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5492,7 +5643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5512,7 +5663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5532,9 +5683,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3">
         <v>0.9375</v>
@@ -5546,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>37</v>
@@ -5554,7 +5705,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3">
         <v>0.70138888888888884</v>
@@ -5566,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>47</v>
@@ -5574,7 +5725,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3">
         <v>0.91666666666666663</v>
@@ -5586,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -5594,7 +5745,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3">
         <v>0.625</v>
@@ -5606,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>37</v>
@@ -5614,7 +5765,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3">
         <v>0.625</v>
@@ -5626,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
@@ -5634,7 +5785,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3">
         <v>0.625</v>
@@ -5646,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>37</v>
@@ -5654,7 +5805,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
@@ -5666,15 +5817,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="B18" s="3">
         <v>0.6875</v>
@@ -5686,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>37</v>
@@ -5694,7 +5845,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3">
         <v>0.81944444444444453</v>
@@ -5706,15 +5857,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3">
         <v>0.70833333333333337</v>
@@ -5726,15 +5877,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="B21" s="3">
         <v>0.91666666666666663</v>
@@ -5746,15 +5897,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3">
         <v>0.70833333333333337</v>
@@ -5766,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,13 +6070,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5942,7 +6093,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5958,7 +6109,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5978,7 +6129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -5998,7 +6149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6018,7 +6169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6038,7 +6189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6058,7 +6209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6078,7 +6229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6138,7 +6289,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6162,7 +6313,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6322,30 +6473,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6362,7 +6513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6380,7 +6531,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6400,7 +6551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6410,17 +6561,17 @@
       </c>
       <c r="C7" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>4110</v>
+        <v>4410</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>4110</v>
+        <v>4410</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6440,7 +6591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6460,7 +6611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6480,7 +6631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6500,7 +6651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6520,9 +6671,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A13,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
@@ -6537,12 +6688,12 @@
         <v>150</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A14,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
@@ -6553,7 +6704,7 @@
         <v>210</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\서강\7학기\융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85E2949-737D-40C1-AEA8-695973089EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C451AD-FF56-432C-9944-468BB2C50B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1210,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="96">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2783,6 +2782,10 @@
   </si>
   <si>
     <t>initial data set 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3442,20 +3445,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3467,10 +3470,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3482,8 +3485,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3524,7 +3527,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3545,7 +3548,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -3925,23 +3928,47 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>43764</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="8">
+        <v>30</v>
+      </c>
+      <c r="E27" s="16">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>43764</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>60</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3949,7 +3976,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3957,7 +3984,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3965,7 +3992,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3973,7 +4000,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3981,7 +4008,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3989,7 +4016,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3997,7 +4024,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4005,7 +4032,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4013,7 +4040,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4021,7 +4048,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4029,7 +4056,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4037,7 +4064,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4045,7 +4072,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4068,18 +4095,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4091,12 +4118,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4108,11 +4135,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4172,7 +4199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4192,7 +4219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4212,7 +4239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4252,7 +4279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>88</v>
       </c>
@@ -4272,7 +4299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4292,7 +4319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4312,7 +4339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>89</v>
       </c>
@@ -4332,7 +4359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>90</v>
       </c>
@@ -4372,7 +4399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>91</v>
       </c>
@@ -4392,7 +4419,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -4412,7 +4439,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
@@ -4432,7 +4459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4440,7 +4467,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4448,7 +4475,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4456,7 +4483,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4464,7 +4491,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4472,7 +4499,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4480,7 +4507,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4488,7 +4515,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4496,7 +4523,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4504,7 +4531,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4512,7 +4539,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4520,7 +4547,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4528,7 +4555,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4536,7 +4563,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4544,7 +4571,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4552,7 +4579,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4560,7 +4587,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4568,7 +4595,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4595,13 +4622,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4613,12 +4640,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4630,11 +4657,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4654,7 +4681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4674,7 +4701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4694,7 +4721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4734,7 +4761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4754,7 +4781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4762,7 +4789,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4770,7 +4797,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4778,7 +4805,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4786,7 +4813,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4794,7 +4821,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4802,7 +4829,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4810,7 +4837,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4818,7 +4845,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4826,7 +4853,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4834,7 +4861,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4842,7 +4869,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4850,7 +4877,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4858,7 +4885,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4866,7 +4893,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4874,7 +4901,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4882,7 +4909,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4890,7 +4917,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4898,7 +4925,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4906,7 +4933,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4914,7 +4941,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4922,7 +4949,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4930,7 +4957,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4938,7 +4965,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4946,7 +4973,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4954,7 +4981,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4962,7 +4989,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4970,7 +4997,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4997,14 +5024,14 @@
       <selection activeCell="F21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5016,12 +5043,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5033,11 +5060,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5057,7 +5084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5077,7 +5104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5097,7 +5124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5117,7 +5144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5137,7 +5164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5157,7 +5184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5177,7 +5204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5197,7 +5224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5217,7 +5244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5237,7 +5264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5257,7 +5284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5277,7 +5304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5297,7 +5324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5317,7 +5344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5337,7 +5364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5357,7 +5384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5377,7 +5404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5385,7 +5412,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5393,7 +5420,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5401,7 +5428,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5409,7 +5436,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5417,7 +5444,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5425,7 +5452,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5433,7 +5460,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5441,7 +5468,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5449,7 +5476,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5457,7 +5484,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5465,7 +5492,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5473,7 +5500,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5481,7 +5508,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5489,7 +5516,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5497,7 +5524,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5524,13 +5551,13 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5542,12 +5569,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5559,11 +5586,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5603,7 +5630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5623,7 +5650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5643,7 +5670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5663,7 +5690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5683,7 +5710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -5703,7 +5730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -5723,7 +5750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -5743,7 +5770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
@@ -5763,7 +5790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -5783,7 +5810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
@@ -5803,7 +5830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>78</v>
       </c>
@@ -5823,7 +5850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
@@ -5843,7 +5870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5863,7 +5890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5883,7 +5910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
@@ -5903,7 +5930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
@@ -5923,7 +5950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5931,7 +5958,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5939,7 +5966,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5947,7 +5974,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5955,7 +5982,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5963,7 +5990,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5971,7 +5998,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5979,7 +6006,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5987,7 +6014,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5995,7 +6022,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6003,7 +6030,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6011,7 +6038,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6019,7 +6046,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6027,7 +6054,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6035,7 +6062,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6043,7 +6070,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6070,13 +6097,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6088,12 +6115,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6105,11 +6132,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6149,7 +6176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6169,7 +6196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6189,7 +6216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6209,7 +6236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6229,7 +6256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6249,7 +6276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6257,7 +6284,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6265,7 +6292,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6273,7 +6300,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6281,7 +6308,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6289,7 +6316,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6297,7 +6324,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6305,7 +6332,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6313,7 +6340,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6321,7 +6348,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6329,7 +6356,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6337,7 +6364,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6345,7 +6372,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6353,7 +6380,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6361,7 +6388,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6369,7 +6396,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6377,7 +6404,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6385,7 +6412,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6393,7 +6420,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6401,7 +6428,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6409,7 +6436,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6417,7 +6444,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6425,7 +6452,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6433,7 +6460,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6441,7 +6468,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6449,7 +6476,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6477,26 +6504,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6513,7 +6540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6531,7 +6558,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6551,7 +6578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6571,7 +6598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6591,7 +6618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6611,7 +6638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6631,7 +6658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6651,7 +6678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6671,7 +6698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -6691,17 +6718,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A14,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A14,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>65</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C451AD-FF56-432C-9944-468BB2C50B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAE67A-D9E0-48CF-A43A-7E787DAE538C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="2310" windowWidth="15660" windowHeight="13545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2786,6 +2786,29 @@
   </si>
   <si>
     <t>GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class Diagram</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3445,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3969,12 +3992,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="13">
+        <v>43771</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>110</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
@@ -6498,10 +6533,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6691,7 +6726,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="37">
-        <f t="shared" ref="D12:D13" si="1">C12-B12</f>
+        <f t="shared" ref="D12:D15" si="1">C12-B12</f>
         <v>210</v>
       </c>
       <c r="E12" s="38" t="s">
@@ -6730,8 +6765,32 @@
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A14,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
         <v>360</v>
       </c>
+      <c r="D14" s="37">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
       <c r="E14" s="42" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A15,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A15,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
+        <v>110</v>
+      </c>
+      <c r="D15" s="37">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAE67A-D9E0-48CF-A43A-7E787DAE538C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ABB46-1E47-4A46-AFC9-D9412B7AD682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2310" windowWidth="15660" windowHeight="13545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1209,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2809,6 +2810,93 @@
   </si>
   <si>
     <t>Class Diagram</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연습</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행개발 및 개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3472,16 +3560,16 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3493,10 +3581,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3508,8 +3596,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3550,7 +3638,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3571,7 +3659,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3591,7 +3679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3611,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3631,7 +3719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3651,7 +3739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3671,7 +3759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3691,7 +3779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3711,7 +3799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3731,7 +3819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3751,7 +3839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3771,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3791,7 +3879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3811,7 +3899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3831,7 +3919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3851,7 +3939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3871,7 +3959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3891,7 +3979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3911,7 +3999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -3931,7 +4019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -3951,7 +4039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -3971,7 +4059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -3991,7 +4079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4011,7 +4099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4019,7 +4107,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4027,7 +4115,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4035,7 +4123,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4043,7 +4131,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4051,7 +4139,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4059,7 +4147,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4067,7 +4155,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4075,7 +4163,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4083,7 +4171,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4091,7 +4179,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4099,7 +4187,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4107,7 +4195,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4134,14 +4222,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4153,12 +4241,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4170,11 +4258,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4194,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4214,7 +4302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4234,7 +4322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4254,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4274,7 +4362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4294,7 +4382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4314,7 +4402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>88</v>
       </c>
@@ -4334,7 +4422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4354,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4374,7 +4462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>89</v>
       </c>
@@ -4394,7 +4482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4414,7 +4502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>90</v>
       </c>
@@ -4434,7 +4522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>91</v>
       </c>
@@ -4454,7 +4542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -4474,7 +4562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
@@ -4494,7 +4582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4502,7 +4590,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4510,7 +4598,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4518,7 +4606,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4526,7 +4614,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4534,7 +4622,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4542,7 +4630,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4550,7 +4638,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4558,7 +4646,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4566,7 +4654,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4574,7 +4662,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4582,7 +4670,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4590,7 +4678,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4598,7 +4686,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4606,7 +4694,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4614,7 +4702,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4622,7 +4710,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4630,7 +4718,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4657,13 +4745,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4675,12 +4763,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4692,11 +4780,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4716,7 +4804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4736,7 +4824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4756,7 +4844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4776,7 +4864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4796,7 +4884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4816,7 +4904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4824,7 +4912,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4832,7 +4920,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4840,7 +4928,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4848,7 +4936,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4856,7 +4944,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4864,7 +4952,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4872,7 +4960,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4880,7 +4968,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4888,7 +4976,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4896,7 +4984,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4904,7 +4992,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4912,7 +5000,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4920,7 +5008,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4928,7 +5016,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4936,7 +5024,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4944,7 +5032,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4952,7 +5040,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4960,7 +5048,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4968,7 +5056,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4976,7 +5064,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4984,7 +5072,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4992,7 +5080,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5000,7 +5088,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5008,7 +5096,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5016,7 +5104,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5024,7 +5112,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5032,7 +5120,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5053,20 +5141,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5078,12 +5166,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5095,11 +5183,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5119,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5139,7 +5227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5159,7 +5247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5179,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5199,7 +5287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5219,7 +5307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5239,7 +5327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5259,7 +5347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5279,7 +5367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5299,7 +5387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5319,7 +5407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5339,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5359,7 +5447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5379,7 +5467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5399,7 +5487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5419,7 +5507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5439,39 +5527,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43766</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D22" s="28">
+        <v>20</v>
+      </c>
+      <c r="E22" s="32">
+        <v>40</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43768</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D23" s="28">
+        <v>60</v>
+      </c>
+      <c r="E23" s="32">
+        <v>180</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43772</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>60</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43776</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5479,7 +5615,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5487,7 +5623,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5495,7 +5631,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5503,7 +5639,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5511,7 +5647,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5519,7 +5655,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5527,7 +5663,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5535,7 +5671,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5543,29 +5679,53 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5586,13 +5746,13 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5604,12 +5764,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5621,11 +5781,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5645,7 +5805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5665,7 +5825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5685,7 +5845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5705,7 +5865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5725,7 +5885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5745,7 +5905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -5765,7 +5925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -5785,7 +5945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -5805,7 +5965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
@@ -5825,7 +5985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -5845,7 +6005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
@@ -5865,7 +6025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>78</v>
       </c>
@@ -5885,7 +6045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
@@ -5905,7 +6065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5925,7 +6085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -5945,7 +6105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
@@ -5965,7 +6125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
@@ -5985,7 +6145,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5993,7 +6153,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6001,7 +6161,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6009,7 +6169,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6017,7 +6177,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6025,7 +6185,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6033,7 +6193,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6041,7 +6201,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6049,7 +6209,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6057,7 +6217,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6065,7 +6225,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6073,7 +6233,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6081,7 +6241,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6089,7 +6249,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6097,7 +6257,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6105,7 +6265,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6132,13 +6292,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6150,12 +6310,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6167,11 +6327,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6191,7 +6351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6211,7 +6371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6231,7 +6391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6251,7 +6411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6271,7 +6431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6311,7 +6471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6319,7 +6479,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6327,7 +6487,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6335,7 +6495,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6343,7 +6503,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6351,7 +6511,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6359,7 +6519,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6367,7 +6527,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6375,7 +6535,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6383,7 +6543,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6391,7 +6551,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6399,7 +6559,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6407,7 +6567,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6415,7 +6575,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6423,7 +6583,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6431,7 +6591,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6439,7 +6599,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6447,7 +6607,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6455,7 +6615,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6463,7 +6623,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6471,7 +6631,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6479,7 +6639,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6487,7 +6647,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6495,7 +6655,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6503,7 +6663,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6511,7 +6671,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6533,32 +6693,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6575,7 +6735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6593,7 +6753,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +6773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6633,7 +6793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6653,7 +6813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6673,7 +6833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6693,7 +6853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6713,7 +6873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6733,7 +6893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -6753,7 +6913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
@@ -6773,7 +6933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
@@ -6791,6 +6951,66 @@
       </c>
       <c r="E15" s="42" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A16,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A16,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
+        <v>90</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" ref="D16" si="2">C16-B16</f>
+        <v>90</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A17,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
+        <v>20</v>
+      </c>
+      <c r="C17" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A17,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
+        <v>40</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" ref="D17" si="3">C17-B17</f>
+        <v>20</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A18,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
+        <v>60</v>
+      </c>
+      <c r="C18" s="37">
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A18,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
+        <v>240</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" ref="D18" si="4">C18-B18</f>
+        <v>180</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ABB46-1E47-4A46-AFC9-D9412B7AD682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230A828-8C43-1540-8FA7-55D661429741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2908,7 +2908,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3556,20 +3556,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3596,8 +3596,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4107,7 +4107,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4115,7 +4115,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4123,7 +4123,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4131,7 +4131,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4139,7 +4139,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4147,7 +4147,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4155,7 +4155,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4163,7 +4163,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4171,7 +4171,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4179,7 +4179,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4187,7 +4187,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4195,7 +4195,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4222,14 +4222,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4241,12 +4241,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4258,11 +4258,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
         <v>88</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
         <v>89</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
         <v>90</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>91</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4590,7 +4590,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4598,7 +4598,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4606,7 +4606,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4614,7 +4614,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4622,7 +4622,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4630,7 +4630,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4638,7 +4638,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4646,7 +4646,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4654,7 +4654,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4662,7 +4662,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4670,7 +4670,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4678,7 +4678,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4686,7 +4686,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4694,7 +4694,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4702,7 +4702,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4710,7 +4710,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4718,7 +4718,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4745,13 +4745,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4763,12 +4763,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4780,11 +4780,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4912,7 +4912,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4920,7 +4920,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4928,7 +4928,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4936,7 +4936,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4944,7 +4944,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4952,7 +4952,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4960,7 +4960,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4968,7 +4968,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4976,7 +4976,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4984,7 +4984,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4992,7 +4992,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5000,7 +5000,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5008,7 +5008,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5016,7 +5016,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5024,7 +5024,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5032,7 +5032,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5040,7 +5040,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5048,7 +5048,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5056,7 +5056,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5064,7 +5064,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5072,7 +5072,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5080,7 +5080,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5088,7 +5088,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5096,7 +5096,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5104,7 +5104,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5112,7 +5112,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5120,7 +5120,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5143,18 +5143,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5166,12 +5166,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5183,11 +5183,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5615,7 +5615,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5623,7 +5623,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5631,7 +5631,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5639,7 +5639,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5647,7 +5647,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5655,7 +5655,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5663,7 +5663,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5671,7 +5671,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5679,7 +5679,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5687,7 +5687,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5695,7 +5695,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5703,7 +5703,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5711,7 +5711,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5719,7 +5719,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5742,17 +5742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5764,12 +5764,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5781,11 +5781,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>78</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
@@ -6145,31 +6145,67 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
+      <c r="A23" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D23" s="28">
+        <v>30</v>
+      </c>
+      <c r="E23" s="32">
+        <v>60</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="D24" s="28">
+        <v>50</v>
+      </c>
+      <c r="E24" s="32">
+        <v>240</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="30">
+        <v>43774</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="D25" s="28">
+        <v>20</v>
+      </c>
+      <c r="E25" s="32">
+        <v>60</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6177,7 +6213,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6185,7 +6221,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6193,7 +6229,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6201,7 +6237,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6209,7 +6245,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6217,7 +6253,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6225,7 +6261,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6233,7 +6269,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6241,7 +6277,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6249,7 +6285,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6257,7 +6293,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6265,7 +6301,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6292,13 +6328,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6310,12 +6346,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6327,11 +6363,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6351,7 +6387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6371,7 +6407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6391,7 +6427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6411,7 +6447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6431,7 +6467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6451,7 +6487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6471,7 +6507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6479,7 +6515,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6487,7 +6523,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6495,7 +6531,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6503,7 +6539,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6511,7 +6547,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6519,7 +6555,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6527,7 +6563,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6535,7 +6571,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6543,7 +6579,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6551,7 +6587,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6559,7 +6595,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6567,7 +6603,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6575,7 +6611,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6583,7 +6619,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6591,7 +6627,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6599,7 +6635,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6607,7 +6643,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6615,7 +6651,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6623,7 +6659,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6631,7 +6667,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6639,7 +6675,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6647,7 +6683,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6655,7 +6691,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6663,7 +6699,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6671,7 +6707,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6699,26 +6735,26 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6735,7 +6771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6753,7 +6789,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6773,7 +6809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6793,7 +6829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6813,7 +6849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6833,7 +6869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6853,7 +6889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6873,7 +6909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
@@ -6893,7 +6929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -6913,27 +6949,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A14,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A14,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="D14" s="37">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
@@ -6953,27 +6989,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A16,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A16,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>101</v>
       </c>
@@ -6993,7 +7029,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>104</v>
       </c>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230A828-8C43-1540-8FA7-55D661429741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF68A43-5C6A-4440-999A-57BE0A01B9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
-    <sheet name="김백준" sheetId="2" r:id="rId2"/>
+    <sheet name="김백준(휴학)" sheetId="2" r:id="rId2"/>
     <sheet name="박진근" sheetId="3" r:id="rId3"/>
     <sheet name="이미정" sheetId="4" r:id="rId4"/>
     <sheet name="정동연" sheetId="5" r:id="rId5"/>
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2897,6 +2897,10 @@
   </si>
   <si>
     <t>선행개발 및 개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2908,7 +2912,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3556,20 +3560,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3581,10 +3585,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3596,8 +3600,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3638,7 +3642,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4099,23 +4103,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>43776</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>180</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>43778</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D31" s="8">
+        <v>150</v>
+      </c>
+      <c r="E31" s="16">
+        <v>330</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4123,7 +4151,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4131,7 +4159,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4139,7 +4167,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4147,7 +4175,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4155,7 +4183,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4163,7 +4191,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4171,7 +4199,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4179,7 +4207,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4187,7 +4215,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4195,7 +4223,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4219,17 +4247,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4241,12 +4269,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4258,11 +4286,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4282,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4302,7 +4330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4322,7 +4350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4342,7 +4370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4362,7 +4390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4382,7 +4410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4402,7 +4430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>88</v>
       </c>
@@ -4422,7 +4450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4442,7 +4470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4462,7 +4490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>89</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4502,7 +4530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>90</v>
       </c>
@@ -4522,7 +4550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>91</v>
       </c>
@@ -4542,7 +4570,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -4562,7 +4590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
@@ -4582,7 +4610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4590,7 +4618,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4598,7 +4626,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4606,7 +4634,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4614,7 +4642,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4622,7 +4650,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4630,7 +4658,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4638,7 +4666,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4646,7 +4674,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4654,7 +4682,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4662,7 +4690,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4670,7 +4698,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4678,7 +4706,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4686,7 +4714,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4694,7 +4722,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4702,7 +4730,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4710,7 +4738,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4718,7 +4746,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4745,13 +4773,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4763,12 +4791,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4780,11 +4808,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4804,7 +4832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4824,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4844,7 +4872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4864,7 +4892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4904,7 +4932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4912,7 +4940,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4920,7 +4948,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4928,7 +4956,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4936,7 +4964,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4944,7 +4972,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4952,7 +4980,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4960,7 +4988,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4968,7 +4996,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4976,7 +5004,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4984,7 +5012,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4992,7 +5020,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5000,7 +5028,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5008,7 +5036,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5016,7 +5044,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5024,7 +5052,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5032,7 +5060,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5040,7 +5068,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5048,7 +5076,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5056,7 +5084,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5064,7 +5092,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5072,7 +5100,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5080,7 +5108,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5088,7 +5116,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5096,7 +5124,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5104,7 +5132,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5112,7 +5140,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5120,7 +5148,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5147,14 +5175,14 @@
       <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5166,12 +5194,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5183,11 +5211,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5227,7 +5255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5247,7 +5275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5267,7 +5295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5287,7 +5315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5307,7 +5335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5327,7 +5355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5347,7 +5375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5367,7 +5395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5387,7 +5415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5407,7 +5435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5427,7 +5455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5447,7 +5475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5467,7 +5495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5487,7 +5515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5507,7 +5535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5527,7 +5555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5547,7 +5575,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5567,7 +5595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5587,7 +5615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5607,7 +5635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5615,7 +5643,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5623,7 +5651,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5631,7 +5659,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5639,7 +5667,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5647,7 +5675,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5655,7 +5683,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5663,7 +5691,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5671,7 +5699,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5679,7 +5707,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5687,7 +5715,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5695,7 +5723,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5703,7 +5731,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5711,7 +5739,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5719,7 +5747,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5742,17 +5770,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5764,12 +5792,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5781,11 +5809,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5805,7 +5833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5825,7 +5853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5845,7 +5873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5865,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5885,7 +5913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5905,7 +5933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -5925,7 +5953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -5965,7 +5993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
@@ -5985,7 +6013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -6005,7 +6033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
@@ -6025,7 +6053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>78</v>
       </c>
@@ -6045,7 +6073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
@@ -6065,7 +6093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6085,7 +6113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6105,7 +6133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
@@ -6125,7 +6153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
@@ -6145,7 +6173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6165,7 +6193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6185,7 +6213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6205,7 +6233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6213,7 +6241,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6221,7 +6249,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6229,7 +6257,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6237,7 +6265,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6245,7 +6273,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6253,7 +6281,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6261,7 +6289,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6269,7 +6297,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6277,7 +6305,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6285,7 +6313,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6293,7 +6321,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6301,7 +6329,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6328,13 +6356,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6346,12 +6374,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6363,11 +6391,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6387,7 +6415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6407,7 +6435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6427,7 +6455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6447,7 +6475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6467,7 +6495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6487,7 +6515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6507,7 +6535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6515,7 +6543,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6523,7 +6551,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6531,7 +6559,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6539,7 +6567,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6547,7 +6575,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6555,7 +6583,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6563,7 +6591,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6571,7 +6599,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6579,7 +6607,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6587,7 +6615,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6595,7 +6623,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6603,7 +6631,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6611,7 +6639,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6619,7 +6647,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6627,7 +6655,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6635,7 +6663,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6643,7 +6671,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6651,7 +6679,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6659,7 +6687,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6667,7 +6695,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6675,7 +6703,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6683,7 +6711,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6691,7 +6719,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6699,7 +6727,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6707,7 +6735,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6735,26 +6763,26 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6771,16 +6799,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A5,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A5,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
         <v>180</v>
       </c>
       <c r="C5" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A5,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A5,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
         <v>540</v>
       </c>
       <c r="D5" s="37">
@@ -6789,16 +6817,16 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A6,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A6,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C6" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A6,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A6,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
         <v>50</v>
       </c>
       <c r="D6" s="37">
@@ -6809,16 +6837,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A7,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A7,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C7" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A7,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A7,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
         <v>4410</v>
       </c>
       <c r="D7" s="37">
@@ -6829,16 +6857,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A8,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A8,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C8" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A8,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A8,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
         <v>120</v>
       </c>
       <c r="D8" s="37">
@@ -6849,16 +6877,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A9,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A9,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
         <v>30</v>
       </c>
       <c r="C9" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A9,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A9,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
         <v>420</v>
       </c>
       <c r="D9" s="37">
@@ -6869,16 +6897,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A10,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A10,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C10" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A10,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A10,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
         <v>30</v>
       </c>
       <c r="D10" s="37">
@@ -6889,16 +6917,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A11,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
         <v>30</v>
       </c>
       <c r="C11" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A11,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
         <v>180</v>
       </c>
       <c r="D11" s="37">
@@ -6909,16 +6937,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A12,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
         <v>30</v>
       </c>
       <c r="C12" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A12,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
         <v>240</v>
       </c>
       <c r="D12" s="37">
@@ -6929,16 +6957,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A13,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C13" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A13,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
         <v>150</v>
       </c>
       <c r="D13" s="37">
@@ -6949,16 +6977,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A14,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
         <v>110</v>
       </c>
       <c r="C14" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A14,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
         <v>660</v>
       </c>
       <c r="D14" s="37">
@@ -6969,16 +6997,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A15,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C15" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A15,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
         <v>110</v>
       </c>
       <c r="D15" s="37">
@@ -6989,16 +7017,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A16,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
         <v>20</v>
       </c>
       <c r="C16" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A16,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
         <v>150</v>
       </c>
       <c r="D16" s="37">
@@ -7009,16 +7037,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A17,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
         <v>20</v>
       </c>
       <c r="C17" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A17,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
         <v>40</v>
       </c>
       <c r="D17" s="37">
@@ -7029,21 +7057,21 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF(김백준!F:F,TOTAL!A18,김백준!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>60</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
+        <v>210</v>
       </c>
       <c r="C18" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF(김백준!F:F,TOTAL!A18,김백준!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>240</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
+        <v>750</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>105</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF68A43-5C6A-4440-999A-57BE0A01B9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6A097-4FAE-4E56-B040-FB7C8D6652FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3561,7 +3561,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4144,12 +4144,24 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="13">
+        <v>43781</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
@@ -7007,11 +7019,11 @@
       </c>
       <c r="C15" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D15" s="37">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>97</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6A097-4FAE-4E56-B040-FB7C8D6652FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE894B-0854-428A-9719-9C563DA6587B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2901,6 +2901,10 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table design</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3560,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4164,12 +4168,24 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="13">
+        <v>43782</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>40</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
@@ -7039,11 +7055,11 @@
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>99</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF68A43-5C6A-4440-999A-57BE0A01B9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2803BF83-8A53-D846-B705-D522B168A0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2398,21 +2398,6 @@
         <charset val="129"/>
       </rPr>
       <t>관리</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>아이디어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 모색</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2901,6 +2886,14 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의준비 및 필요 데이터 조사</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2912,7 +2905,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3560,20 +3553,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3585,10 +3578,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3600,8 +3593,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3621,7 +3614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3642,7 +3635,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3663,7 +3656,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3683,7 +3676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3723,7 +3716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3763,7 +3756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3800,10 +3793,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3823,7 +3816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3843,7 +3836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3863,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3903,7 +3896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3920,10 +3913,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3940,10 +3933,10 @@
         <v>150</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3960,10 +3953,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3980,10 +3973,10 @@
         <v>30</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4000,10 +3993,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4020,10 +4013,10 @@
         <v>150</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4040,10 +4033,10 @@
         <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4060,10 +4053,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4080,10 +4073,10 @@
         <v>60</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4100,10 +4093,10 @@
         <v>110</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4120,10 +4113,10 @@
         <v>180</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4140,26 +4133,50 @@
         <v>330</v>
       </c>
       <c r="F31" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="13">
+        <v>43781</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="A33" s="13">
+        <v>43782</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>40</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4167,7 +4184,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4175,7 +4192,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4183,7 +4200,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4191,7 +4208,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4199,7 +4216,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4207,7 +4224,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4215,7 +4232,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4223,7 +4240,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4250,14 +4267,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4269,12 +4286,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4286,11 +4303,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4330,7 +4347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4350,7 +4367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4370,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4390,7 +4407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4410,7 +4427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4430,9 +4447,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="39">
         <v>0</v>
@@ -4447,10 +4464,10 @@
         <v>90</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4490,9 +4507,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="39">
         <v>0.66666666666666663</v>
@@ -4507,10 +4524,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4530,9 +4547,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="25">
         <v>0.6875</v>
@@ -4550,9 +4567,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3">
         <v>0.95833333333333337</v>
@@ -4567,12 +4584,12 @@
         <v>110</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14">
+      <c r="A19" s="13" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="B19" s="3">
         <v>0.70833333333333337</v>
@@ -4587,12 +4604,12 @@
         <v>120</v>
       </c>
       <c r="F19" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14">
+      <c r="A20" s="13" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="B20" s="3">
         <v>0.875</v>
@@ -4607,10 +4624,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4618,7 +4635,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4626,7 +4643,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4634,7 +4651,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4642,7 +4659,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4650,7 +4667,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4658,7 +4675,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4666,7 +4683,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4674,7 +4691,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4682,7 +4699,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4690,7 +4707,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4698,7 +4715,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4706,7 +4723,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4714,7 +4731,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4722,7 +4739,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4730,7 +4747,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4738,7 +4755,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4746,7 +4763,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4773,13 +4790,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4791,12 +4808,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4808,11 +4825,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4832,7 +4849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4852,7 +4869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4892,7 +4909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4912,7 +4929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4932,7 +4949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4940,7 +4957,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4948,7 +4965,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4956,7 +4973,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4964,7 +4981,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4972,7 +4989,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4980,7 +4997,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4988,7 +5005,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4996,7 +5013,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5004,7 +5021,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5012,7 +5029,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5020,7 +5037,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5028,7 +5045,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5036,7 +5053,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5044,7 +5061,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5052,7 +5069,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5060,7 +5077,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5068,7 +5085,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5076,7 +5093,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5084,7 +5101,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5092,7 +5109,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5100,7 +5117,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5108,7 +5125,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5116,7 +5133,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5124,7 +5141,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5132,7 +5149,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5140,7 +5157,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5148,7 +5165,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5171,18 +5188,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5194,12 +5211,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5211,11 +5228,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5235,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5255,7 +5272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5275,7 +5292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5295,7 +5312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5315,7 +5332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5335,7 +5352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5355,7 +5372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5375,7 +5392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5395,7 +5412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5415,7 +5432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5435,7 +5452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5452,10 +5469,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5472,10 +5489,10 @@
         <v>150</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5492,10 +5509,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5532,10 +5549,10 @@
         <v>120</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5555,7 +5572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5572,10 +5589,10 @@
         <v>40</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5592,10 +5609,10 @@
         <v>180</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5612,10 +5629,10 @@
         <v>60</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5632,10 +5649,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5643,7 +5660,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5651,7 +5668,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5659,7 +5676,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5667,7 +5684,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5675,7 +5692,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5683,7 +5700,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5691,7 +5708,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5699,7 +5716,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5707,7 +5724,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5715,7 +5732,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5723,7 +5740,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5731,7 +5748,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5739,7 +5756,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5747,7 +5764,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5770,17 +5787,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5792,12 +5810,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5809,11 +5827,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5833,7 +5851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5853,7 +5871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5913,7 +5931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5933,9 +5951,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>0.9375</v>
@@ -5947,15 +5965,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3">
         <v>0.70138888888888884</v>
@@ -5967,15 +5985,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3">
         <v>0.91666666666666663</v>
@@ -5987,15 +6005,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3">
         <v>0.625</v>
@@ -6007,15 +6025,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3">
         <v>0.625</v>
@@ -6027,15 +6045,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3">
         <v>0.625</v>
@@ -6047,15 +6065,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
@@ -6067,15 +6085,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="14">
+      <c r="A18" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>0.6875</v>
@@ -6087,15 +6105,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3">
         <v>0.81944444444444453</v>
@@ -6107,15 +6125,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="B20" s="3">
         <v>0.70833333333333337</v>
@@ -6127,15 +6145,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="14">
+      <c r="A21" s="13" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="B21" s="3">
         <v>0.91666666666666663</v>
@@ -6147,15 +6165,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3">
         <v>0.70833333333333337</v>
@@ -6167,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6190,10 +6208,10 @@
         <v>60</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6210,10 +6228,10 @@
         <v>240</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6230,34 +6248,70 @@
         <v>60</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13">
+        <v>43777</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D26" s="8">
+        <v>360</v>
+      </c>
+      <c r="E26" s="16">
+        <v>700</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13">
+        <v>43778</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>100</v>
+      </c>
+      <c r="E27" s="16">
+        <v>420</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="30">
+        <v>43778</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D28" s="8">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16">
+        <v>120</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6265,7 +6319,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6273,7 +6327,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6281,7 +6335,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6289,7 +6343,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6297,7 +6351,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6305,7 +6359,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6313,7 +6367,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6321,7 +6375,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6329,7 +6383,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6356,13 +6410,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6374,12 +6428,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6391,11 +6445,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6415,7 +6469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6435,7 +6489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6455,7 +6509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6495,7 +6549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6515,7 +6569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6535,7 +6589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6543,7 +6597,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6551,7 +6605,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6559,7 +6613,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6567,7 +6621,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6575,7 +6629,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6583,7 +6637,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6591,7 +6645,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6599,7 +6653,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6607,7 +6661,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6615,7 +6669,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6623,7 +6677,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6631,7 +6685,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6639,7 +6693,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6647,7 +6701,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6655,7 +6709,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6663,7 +6717,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6671,7 +6725,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6679,7 +6733,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6687,7 +6741,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6695,7 +6749,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6703,7 +6757,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6711,7 +6765,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6719,7 +6773,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6727,7 +6781,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6735,7 +6789,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6760,29 +6814,29 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6817,7 +6871,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6837,7 +6891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6857,7 +6911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6877,7 +6931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6897,7 +6951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6917,29 +6971,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="D11" s="37">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14">
+      <c r="A12" s="21" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="B12" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
@@ -6957,9 +7011,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
@@ -6974,12 +7028,12 @@
         <v>150</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
@@ -6994,12 +7048,12 @@
         <v>550</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
@@ -7007,39 +7061,39 @@
       </c>
       <c r="C15" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D15" s="37">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
@@ -7054,27 +7108,27 @@
         <v>20</v>
       </c>
       <c r="E17" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14">
+      <c r="A18" s="21" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>210</v>
+        <v>570</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>750</v>
+        <v>1450</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>540</v>
+        <v>880</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2803BF83-8A53-D846-B705-D522B168A0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD28D10-4D53-41BC-B171-F8D8FB1BF2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2894,6 +2894,10 @@
   </si>
   <si>
     <t>회의준비 및 필요 데이터 조사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2905,7 +2909,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3553,20 +3557,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3578,10 +3582,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3593,8 +3597,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3635,7 +3639,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3656,7 +3660,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3796,7 +3800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3876,7 +3880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3916,7 +3920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4176,23 +4180,47 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>43785</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>30</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>43786</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>310</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4200,7 +4228,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4208,7 +4236,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4216,7 +4244,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4224,7 +4252,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4232,7 +4260,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4240,7 +4268,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4267,14 +4295,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4286,12 +4314,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4303,11 +4331,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4327,7 +4355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4347,7 +4375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4367,7 +4395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4387,7 +4415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4407,7 +4435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4427,7 +4455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4447,7 +4475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4467,7 +4495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4487,7 +4515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4507,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4527,7 +4555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4547,7 +4575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4567,7 +4595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4587,7 +4615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4607,7 +4635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4627,7 +4655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4635,7 +4663,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4643,7 +4671,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4651,7 +4679,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4659,7 +4687,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4667,7 +4695,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4675,7 +4703,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4683,7 +4711,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4691,7 +4719,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4699,7 +4727,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4707,7 +4735,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4715,7 +4743,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4723,7 +4751,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4731,7 +4759,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4739,7 +4767,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4747,7 +4775,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4755,7 +4783,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4763,7 +4791,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4790,13 +4818,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4808,12 +4836,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4825,11 +4853,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4869,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4889,7 +4917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4909,7 +4937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4929,7 +4957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4949,7 +4977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4957,7 +4985,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4965,7 +4993,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4973,7 +5001,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4981,7 +5009,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4989,7 +5017,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4997,7 +5025,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5005,7 +5033,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5013,7 +5041,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5021,7 +5049,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5029,7 +5057,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5037,7 +5065,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5045,7 +5073,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5053,7 +5081,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5061,7 +5089,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5069,7 +5097,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5077,7 +5105,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5085,7 +5113,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5093,7 +5121,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5101,7 +5129,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5109,7 +5137,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5117,7 +5145,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5125,7 +5153,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5133,7 +5161,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5141,7 +5169,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5149,7 +5177,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5157,7 +5185,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5165,7 +5193,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5192,14 +5220,14 @@
       <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5211,12 +5239,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5228,11 +5256,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5252,7 +5280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5272,7 +5300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5292,7 +5320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5312,7 +5340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5332,7 +5360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5352,7 +5380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5372,7 +5400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5392,7 +5420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5412,7 +5440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5432,7 +5460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5452,7 +5480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5472,7 +5500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5492,7 +5520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5512,7 +5540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5532,7 +5560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5552,7 +5580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5572,7 +5600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5592,7 +5620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5612,7 +5640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5632,7 +5660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5652,7 +5680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5660,7 +5688,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5668,7 +5696,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5676,7 +5704,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5684,7 +5712,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5692,7 +5720,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5700,7 +5728,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5708,7 +5736,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5716,7 +5744,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5724,7 +5752,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5732,7 +5760,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5740,7 +5768,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5748,7 +5776,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5756,7 +5784,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5764,7 +5792,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5787,18 +5815,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5810,12 +5838,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5827,11 +5855,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5871,7 +5899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5891,7 +5919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5911,7 +5939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5931,7 +5959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5951,7 +5979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -5971,7 +5999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -5991,7 +6019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6011,7 +6039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6031,7 +6059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6051,7 +6079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6071,7 +6099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6091,7 +6119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6111,7 +6139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6131,7 +6159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6151,7 +6179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6171,7 +6199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6191,7 +6219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6211,7 +6239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6231,7 +6259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6251,7 +6279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6271,7 +6299,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6291,7 +6319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6311,7 +6339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6319,7 +6347,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6327,7 +6355,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6335,7 +6363,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6343,7 +6371,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6351,7 +6379,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6359,7 +6387,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6367,7 +6395,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6375,7 +6403,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6383,7 +6411,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6410,13 +6438,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6428,12 +6456,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6445,11 +6473,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6469,7 +6497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6489,7 +6517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6509,7 +6537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6529,7 +6557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6549,7 +6577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6569,7 +6597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6589,7 +6617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6597,7 +6625,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6605,7 +6633,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6613,7 +6641,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6621,7 +6649,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6629,7 +6657,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6637,7 +6665,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6645,7 +6673,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6653,7 +6681,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6661,7 +6689,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6669,7 +6697,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6677,7 +6705,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6685,7 +6713,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6693,7 +6721,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6701,7 +6729,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6709,7 +6737,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6717,7 +6745,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6725,7 +6753,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6733,7 +6761,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6741,7 +6769,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6749,7 +6777,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6757,7 +6785,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6765,7 +6793,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6773,7 +6801,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6781,7 +6809,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6789,7 +6817,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6817,26 +6845,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6853,7 +6881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6871,7 +6899,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6891,7 +6919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6911,7 +6939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6931,7 +6959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6951,7 +6979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6971,7 +6999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6991,7 +7019,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7011,7 +7039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7031,7 +7059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7051,7 +7079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7071,7 +7099,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7081,17 +7109,17 @@
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7111,7 +7139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
@@ -7121,11 +7149,11 @@
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>880</v>
+        <v>1190</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD28D10-4D53-41BC-B171-F8D8FB1BF2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F780BB4-A7EE-4BEA-8851-DE8A4005BBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="420" windowWidth="10824" windowHeight="10932" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2898,6 +2898,84 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직짜기</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3557,20 +3635,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3582,10 +3660,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3597,8 +3675,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3618,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3639,7 +3717,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3660,7 +3738,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3680,7 +3758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3700,7 +3778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3720,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3740,7 +3818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3760,7 +3838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3780,7 +3858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3800,7 +3878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3820,7 +3898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3840,7 +3918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3860,7 +3938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3880,7 +3958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3900,7 +3978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3920,7 +3998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3940,7 +4018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3960,7 +4038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3980,7 +4058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4000,7 +4078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4020,7 +4098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4040,7 +4118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4060,7 +4138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4080,7 +4158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4100,7 +4178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4120,7 +4198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4140,7 +4218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4160,7 +4238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4180,7 +4258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4200,7 +4278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4220,7 +4298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4228,7 +4306,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4236,7 +4314,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4244,7 +4322,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4252,7 +4330,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4260,7 +4338,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4268,7 +4346,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4295,14 +4373,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4314,12 +4392,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4331,11 +4409,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4355,7 +4433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4375,7 +4453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4395,7 +4473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4415,7 +4493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4435,7 +4513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4455,7 +4533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4475,7 +4553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4495,7 +4573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4515,7 +4593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4535,7 +4613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4555,7 +4633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4575,7 +4653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4595,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4615,7 +4693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4635,7 +4713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4655,7 +4733,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4663,7 +4741,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4671,7 +4749,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4679,7 +4757,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4687,7 +4765,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4695,7 +4773,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4703,7 +4781,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4711,7 +4789,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4719,7 +4797,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4727,7 +4805,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4735,7 +4813,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4743,7 +4821,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4751,7 +4829,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4759,7 +4837,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4767,7 +4845,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4775,7 +4853,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4783,7 +4861,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4791,7 +4869,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4818,13 +4896,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4836,12 +4914,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4853,11 +4931,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4877,7 +4955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4897,7 +4975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -4917,7 +4995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +5015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -4957,7 +5035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -4977,7 +5055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4985,7 +5063,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4993,7 +5071,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5001,7 +5079,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5009,7 +5087,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5017,7 +5095,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5025,7 +5103,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5033,7 +5111,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5041,7 +5119,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5049,7 +5127,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5057,7 +5135,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5065,7 +5143,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5073,7 +5151,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5081,7 +5159,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5089,7 +5167,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5097,7 +5175,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5105,7 +5183,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5113,7 +5191,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5121,7 +5199,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5129,7 +5207,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5137,7 +5215,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5145,7 +5223,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5153,7 +5231,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5161,7 +5239,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5169,7 +5247,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5177,7 +5255,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5185,7 +5263,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5193,7 +5271,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5214,20 +5292,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5239,12 +5317,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5256,11 +5334,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5280,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5300,7 +5378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5320,7 +5398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5340,7 +5418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5360,7 +5438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5380,7 +5458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5400,7 +5478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5420,7 +5498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5440,7 +5518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5460,7 +5538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5480,7 +5558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5500,7 +5578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5520,7 +5598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5540,7 +5618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5560,7 +5638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5580,7 +5658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5600,7 +5678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5620,7 +5698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5640,7 +5718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5660,7 +5738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5680,31 +5758,67 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>43779</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C26" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>120</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>43780</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>60</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>43783</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D28" s="8">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5712,7 +5826,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5720,7 +5834,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5728,7 +5842,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5736,7 +5850,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5744,7 +5858,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5752,7 +5866,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5760,7 +5874,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5768,7 +5882,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5776,29 +5890,45 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5819,14 +5949,14 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5838,12 +5968,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5855,11 +5985,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5879,7 +6009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5899,7 +6029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5919,7 +6049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -5939,7 +6069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -5959,7 +6089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -5979,7 +6109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -5999,7 +6129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6019,7 +6149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6039,7 +6169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6059,7 +6189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6079,7 +6209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6099,7 +6229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6119,7 +6249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6139,7 +6269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6159,7 +6289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6179,7 +6309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6199,7 +6329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6219,7 +6349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6239,7 +6369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6259,7 +6389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6279,7 +6409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6299,7 +6429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6319,7 +6449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6339,7 +6469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6347,7 +6477,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6355,7 +6485,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6363,7 +6493,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6371,7 +6501,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6379,7 +6509,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6387,7 +6517,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6395,7 +6525,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6403,7 +6533,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6411,7 +6541,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6438,13 +6568,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6456,12 +6586,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6473,11 +6603,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6497,7 +6627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6517,7 +6647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6537,7 +6667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6557,7 +6687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6577,7 +6707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6597,7 +6727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6617,7 +6747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6625,7 +6755,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6633,7 +6763,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6641,7 +6771,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6649,7 +6779,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6657,7 +6787,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6665,7 +6795,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6673,7 +6803,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6681,7 +6811,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6689,7 +6819,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6697,7 +6827,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6705,7 +6835,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6713,7 +6843,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6721,7 +6851,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6729,7 +6859,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6737,7 +6867,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6745,7 +6875,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6753,7 +6883,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6761,7 +6891,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6769,7 +6899,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6777,7 +6907,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6785,7 +6915,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6793,7 +6923,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6801,7 +6931,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6809,7 +6939,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6817,7 +6947,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6845,26 +6975,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -6881,7 +7011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -6899,7 +7029,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -6919,7 +7049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -6939,7 +7069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -6959,7 +7089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +7109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -6999,7 +7129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7019,7 +7149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7039,7 +7169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7059,7 +7189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7079,7 +7209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7099,7 +7229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7119,7 +7249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7139,7 +7269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239C3BB-F113-40B6-8386-4921D6904B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD13007-9703-40DC-8AC6-E94FD76C6C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="975" windowWidth="15660" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,6 +2976,10 @@
       </rPr>
       <t>로직짜기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3639,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4323,12 +4327,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="13">
+        <v>43793</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D37" s="8">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16">
+        <v>240</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
@@ -7291,15 +7307,15 @@
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>2120</v>
+        <v>2360</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD13007-9703-40DC-8AC6-E94FD76C6C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78427F24-6E1D-4573-AC80-266A28010AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="975" windowWidth="15660" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1512" yWindow="768" windowWidth="10824" windowHeight="10932" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,6 +2976,10 @@
       </rPr>
       <t>로직짜기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3643,20 +3647,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3668,10 +3672,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3683,8 +3687,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3725,7 +3729,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3746,7 +3750,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4266,7 +4270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43793</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4354,7 +4358,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4362,7 +4366,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4370,7 +4374,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4378,7 +4382,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4405,14 +4409,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4424,12 +4428,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4441,11 +4445,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4773,7 +4777,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4781,7 +4785,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4789,7 +4793,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4797,7 +4801,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4805,7 +4809,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4813,7 +4817,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4821,7 +4825,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4829,7 +4833,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4837,7 +4841,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4845,7 +4849,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4853,7 +4857,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4861,7 +4865,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4869,7 +4873,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4877,7 +4881,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4885,7 +4889,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4893,7 +4897,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4901,7 +4905,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4924,17 +4928,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4946,12 +4950,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4963,11 +4967,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5095,7 +5099,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5103,7 +5107,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5111,7 +5115,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5119,7 +5123,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5127,7 +5131,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5135,7 +5139,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5143,7 +5147,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5151,7 +5155,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5159,7 +5163,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5167,7 +5171,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5175,7 +5179,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5183,7 +5187,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5191,7 +5195,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5199,7 +5203,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5207,7 +5211,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5215,7 +5219,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5223,7 +5227,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5231,7 +5235,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5239,7 +5243,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5247,7 +5251,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5255,7 +5259,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5263,7 +5267,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5271,7 +5275,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5279,7 +5283,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5287,7 +5291,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5295,7 +5299,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5303,7 +5307,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5327,17 +5331,17 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5349,12 +5353,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5366,11 +5370,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5850,15 +5854,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43792</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>180</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5866,7 +5882,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5874,7 +5890,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5882,7 +5898,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5890,7 +5906,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5898,7 +5914,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5906,7 +5922,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5914,7 +5930,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5922,7 +5938,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5930,7 +5946,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5938,7 +5954,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5946,7 +5962,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5954,7 +5970,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5981,14 +5997,14 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6000,12 +6016,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6017,11 +6033,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6041,7 +6057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6061,7 +6077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6101,7 +6117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6121,7 +6137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6141,7 +6157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6161,7 +6177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6201,7 +6217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6221,7 +6237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6241,7 +6257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6261,7 +6277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6281,7 +6297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6321,7 +6337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6341,7 +6357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6361,7 +6377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6381,7 +6397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6421,7 +6437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6441,7 +6457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6461,7 +6477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6481,7 +6497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6501,7 +6517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6509,7 +6525,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6517,7 +6533,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6525,7 +6541,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6533,7 +6549,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6541,7 +6557,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6549,7 +6565,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6557,7 +6573,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6565,7 +6581,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6573,7 +6589,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6596,17 +6612,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6618,12 +6634,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6635,11 +6651,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6659,7 +6675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6679,7 +6695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6699,7 +6715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6719,7 +6735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6739,7 +6755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6759,7 +6775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6779,7 +6795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6787,7 +6803,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6795,7 +6811,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6803,7 +6819,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6811,7 +6827,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6819,7 +6835,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6827,7 +6843,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6835,7 +6851,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6843,7 +6859,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6851,7 +6867,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6859,7 +6875,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6867,7 +6883,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6875,7 +6891,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6883,7 +6899,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6891,7 +6907,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6899,7 +6915,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6907,7 +6923,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6915,7 +6931,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6923,7 +6939,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6931,7 +6947,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6939,7 +6955,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6947,7 +6963,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6955,7 +6971,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6963,7 +6979,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6971,7 +6987,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6979,7 +6995,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7007,26 +7023,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7043,7 +7059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7061,7 +7077,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7081,7 +7097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7121,7 +7137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7141,7 +7157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7161,7 +7177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7181,7 +7197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7201,7 +7217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7221,7 +7237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7241,7 +7257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7261,7 +7277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7281,7 +7297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
@@ -7311,11 +7327,11 @@
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>2360</v>
+        <v>2540</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>1760</v>
+        <v>1940</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78427F24-6E1D-4573-AC80-266A28010AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABFC992-8CEF-BC40-B066-D2544AC53E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="768" windowWidth="10824" windowHeight="10932" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,14 +2976,6 @@
       </rPr>
       <t>로직짜기</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2999,7 +2991,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3647,20 +3639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3672,10 +3664,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3687,8 +3679,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3729,7 +3721,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3750,7 +3742,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3770,7 +3762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3790,7 +3782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3810,7 +3802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3830,7 +3822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3850,7 +3842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3870,7 +3862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3890,7 +3882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3910,7 +3902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3930,7 +3922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3950,7 +3942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3970,7 +3962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3990,7 +3982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4010,7 +4002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4030,7 +4022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4050,7 +4042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4070,7 +4062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4090,7 +4082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4110,7 +4102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4130,7 +4122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4150,7 +4142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4170,7 +4162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4190,7 +4182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4210,7 +4202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4230,7 +4222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4250,7 +4242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4270,7 +4262,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4290,7 +4282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4310,7 +4302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4330,27 +4322,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>43793</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D37" s="8">
-        <v>30</v>
-      </c>
-      <c r="E37" s="16">
-        <v>240</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4358,7 +4338,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4366,7 +4346,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4374,7 +4354,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4382,7 +4362,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4409,14 +4389,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4428,12 +4408,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4445,11 +4425,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4469,7 +4449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4489,7 +4469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4509,7 +4489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4529,7 +4509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4549,7 +4529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4569,7 +4549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4589,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4609,7 +4589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4629,7 +4609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4649,7 +4629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4669,7 +4649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4689,7 +4669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4709,7 +4689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4729,7 +4709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4749,7 +4729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4769,7 +4749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4777,7 +4757,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4785,7 +4765,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4793,7 +4773,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4801,7 +4781,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4809,7 +4789,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4817,7 +4797,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4825,7 +4805,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4833,7 +4813,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4841,7 +4821,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4849,7 +4829,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4857,7 +4837,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4865,7 +4845,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4873,7 +4853,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4881,7 +4861,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4889,7 +4869,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4897,7 +4877,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4905,7 +4885,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4928,17 +4908,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4950,12 +4930,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4967,11 +4947,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5011,7 +4991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5031,7 +5011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5051,7 +5031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5071,7 +5051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5091,7 +5071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5099,7 +5079,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5107,7 +5087,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5115,7 +5095,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5123,7 +5103,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5131,7 +5111,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5139,7 +5119,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5147,7 +5127,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5155,7 +5135,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5163,7 +5143,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5171,7 +5151,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5179,7 +5159,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5187,7 +5167,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5195,7 +5175,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5203,7 +5183,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5211,7 +5191,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5219,7 +5199,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5227,7 +5207,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5235,7 +5215,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5243,7 +5223,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5251,7 +5231,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5259,7 +5239,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5267,7 +5247,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5275,7 +5255,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5283,7 +5263,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5291,7 +5271,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5299,7 +5279,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5307,7 +5287,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5330,18 +5310,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5353,12 +5333,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5370,11 +5350,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5394,7 +5374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5414,7 +5394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5434,7 +5414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5454,7 +5434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5474,7 +5454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5494,7 +5474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5514,7 +5494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5534,7 +5514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5554,7 +5534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5574,7 +5554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5594,7 +5574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5614,7 +5594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5634,7 +5614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5654,7 +5634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5674,7 +5654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5694,7 +5674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5714,7 +5694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5734,7 +5714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5754,7 +5734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5774,7 +5754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5794,7 +5774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5814,7 +5794,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5834,7 +5814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5854,27 +5834,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>43792</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>180</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5882,7 +5850,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5890,7 +5858,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5898,7 +5866,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5906,7 +5874,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5914,7 +5882,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5922,7 +5890,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5930,7 +5898,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5938,7 +5906,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5946,7 +5914,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5954,7 +5922,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5962,7 +5930,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5970,7 +5938,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5993,18 +5961,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6016,12 +5984,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6033,11 +6001,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6057,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6077,7 +6045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6097,7 +6065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6117,7 +6085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6137,7 +6105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6157,7 +6125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6177,7 +6145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6197,7 +6165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6217,7 +6185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6237,7 +6205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6257,7 +6225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6277,7 +6245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6297,7 +6265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6317,7 +6285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6337,7 +6305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6357,7 +6325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6377,7 +6345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6397,7 +6365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6417,7 +6385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6437,7 +6405,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6457,7 +6425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6477,7 +6445,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6497,7 +6465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6517,31 +6485,55 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13">
+        <v>43785</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="8">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16">
+        <v>300</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30">
+        <v>43791</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>400</v>
+      </c>
+      <c r="E30" s="16">
+        <v>720</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="30"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6549,7 +6541,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6557,7 +6549,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6565,7 +6557,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6573,7 +6565,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6581,7 +6573,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6589,7 +6581,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6612,17 +6604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6634,12 +6626,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6651,11 +6643,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6675,7 +6667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6695,7 +6687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6715,7 +6707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6735,7 +6727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6755,7 +6747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6775,7 +6767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6795,7 +6787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6803,7 +6795,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6811,7 +6803,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6819,7 +6811,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6827,7 +6819,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6835,7 +6827,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6843,7 +6835,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6851,7 +6843,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6859,7 +6851,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6867,7 +6859,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6875,7 +6867,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6883,7 +6875,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6891,7 +6883,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6899,7 +6891,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6907,7 +6899,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6915,7 +6907,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6923,7 +6915,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6931,7 +6923,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6939,7 +6931,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6947,7 +6939,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6955,7 +6947,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6963,7 +6955,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6971,7 +6963,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6979,7 +6971,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6987,7 +6979,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6995,7 +6987,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7023,26 +7015,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7059,7 +7051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7077,7 +7069,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7097,7 +7089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7117,7 +7109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7137,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7157,7 +7149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7177,7 +7169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7197,7 +7189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7217,7 +7209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7237,7 +7229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7257,7 +7249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7277,7 +7269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7297,7 +7289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7317,21 +7309,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>2540</v>
+        <v>3140</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABFC992-8CEF-BC40-B066-D2544AC53E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5A5AC-FB8F-134C-BA6B-02F9031F823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -5961,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -6526,28 +6526,64 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="30"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="30">
+        <v>43794</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>150</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="13">
+        <v>43796</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16">
+        <v>120</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="13">
+        <v>43799</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>120</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="13"/>
@@ -7315,15 +7351,15 @@
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>3140</v>
+        <v>3530</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>2140</v>
+        <v>2500</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5A5AC-FB8F-134C-BA6B-02F9031F823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CBB591-056F-459E-B9A4-21308CF530F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12324" windowHeight="10932" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,6 +2976,10 @@
       </rPr>
       <t>로직짜기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2991,7 +2995,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3643,16 +3647,16 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3664,10 +3668,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3679,8 +3683,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3721,7 +3725,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3742,7 +3746,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4062,7 +4066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4122,7 +4126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4202,7 +4206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4330,7 +4334,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4338,7 +4342,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4346,7 +4350,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4354,7 +4358,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4362,7 +4366,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4389,14 +4393,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4408,12 +4412,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4425,11 +4429,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4489,7 +4493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4649,7 +4653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4757,7 +4761,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4765,7 +4769,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4773,7 +4777,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4781,7 +4785,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4789,7 +4793,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4797,7 +4801,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4805,7 +4809,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4813,7 +4817,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4821,7 +4825,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4829,7 +4833,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4837,7 +4841,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4845,7 +4849,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4853,7 +4857,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4861,7 +4865,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4869,7 +4873,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4877,7 +4881,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4885,7 +4889,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4912,13 +4916,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4930,12 +4934,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4947,11 +4951,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5079,7 +5083,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5087,7 +5091,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5095,7 +5099,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5103,7 +5107,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5111,7 +5115,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5119,7 +5123,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5127,7 +5131,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5135,7 +5139,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5143,7 +5147,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5151,7 +5155,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5159,7 +5163,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5167,7 +5171,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5175,7 +5179,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5183,7 +5187,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5191,7 +5195,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5199,7 +5203,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5207,7 +5211,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5215,7 +5219,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5223,7 +5227,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5231,7 +5235,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5239,7 +5243,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5247,7 +5251,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5255,7 +5259,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5263,7 +5267,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5271,7 +5275,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5279,7 +5283,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5287,7 +5291,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5310,18 +5314,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5333,12 +5337,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5350,11 +5354,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5834,47 +5838,107 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43792</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>180</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>43793</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>210</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>60</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>120</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>43799</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>120</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5882,7 +5946,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5890,7 +5954,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5898,7 +5962,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5906,7 +5970,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5914,7 +5978,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5922,7 +5986,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5930,7 +5994,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5938,7 +6002,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5961,18 +6025,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5984,12 +6048,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6001,11 +6065,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6045,7 +6109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6065,7 +6129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6085,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6105,7 +6169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6125,7 +6189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6145,7 +6209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6165,7 +6229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6185,7 +6249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6205,7 +6269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6225,7 +6289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6245,7 +6309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6265,7 +6329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6285,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6305,7 +6369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6325,7 +6389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6345,7 +6409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6365,7 +6429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6385,7 +6449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6405,7 +6469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6425,7 +6489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6445,7 +6509,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6465,7 +6529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6485,7 +6549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6505,7 +6569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6525,7 +6589,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6545,7 +6609,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6565,7 +6629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6585,7 +6649,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6593,7 +6657,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6601,7 +6665,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6609,7 +6673,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6617,7 +6681,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6644,13 +6708,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6662,12 +6726,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6679,11 +6743,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6703,7 +6767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6723,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6743,7 +6807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6763,7 +6827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6783,7 +6847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6803,7 +6867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6823,7 +6887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6831,7 +6895,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6839,7 +6903,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6847,7 +6911,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6855,7 +6919,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6863,7 +6927,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6871,7 +6935,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6879,7 +6943,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6887,7 +6951,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6895,7 +6959,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6903,7 +6967,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6911,7 +6975,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6919,7 +6983,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6927,7 +6991,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6935,7 +6999,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6943,7 +7007,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6951,7 +7015,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6959,7 +7023,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6967,7 +7031,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6975,7 +7039,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6983,7 +7047,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6991,7 +7055,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6999,7 +7063,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7007,7 +7071,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7015,7 +7079,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7023,7 +7087,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7051,26 +7115,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7087,7 +7151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7105,7 +7169,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7125,7 +7189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7145,7 +7209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7165,7 +7229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7185,7 +7249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7205,7 +7269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7225,7 +7289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7245,7 +7309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7265,7 +7329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7285,7 +7349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7305,7 +7369,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7325,7 +7389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7345,7 +7409,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
@@ -7355,11 +7419,11 @@
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>3530</v>
+        <v>4220</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>2500</v>
+        <v>3190</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CBB591-056F-459E-B9A4-21308CF530F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C3CFE8-FDD6-F242-8D3D-D75DD5246C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="12324" windowHeight="10932" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,10 +2976,6 @@
       </rPr>
       <t>로직짜기</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2995,7 +2991,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3647,16 +3643,16 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3668,10 +3664,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3683,8 +3679,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3725,7 +3721,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3746,7 +3742,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3786,7 +3782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3806,7 +3802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3846,7 +3842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3886,7 +3882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3906,7 +3902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4006,7 +4002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4046,7 +4042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4086,7 +4082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4106,7 +4102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4126,7 +4122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4186,7 +4182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4226,7 +4222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4246,7 +4242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4266,7 +4262,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4286,7 +4282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4326,7 +4322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4334,7 +4330,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4342,7 +4338,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4350,7 +4346,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4358,7 +4354,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4366,7 +4362,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4393,14 +4389,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4412,12 +4408,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4429,11 +4425,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4453,7 +4449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4493,7 +4489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4513,7 +4509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4533,7 +4529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4573,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4633,7 +4629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4733,7 +4729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4753,7 +4749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4761,7 +4757,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4769,7 +4765,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4777,7 +4773,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4785,7 +4781,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4793,7 +4789,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4801,7 +4797,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4809,7 +4805,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4817,7 +4813,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4825,7 +4821,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4833,7 +4829,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4841,7 +4837,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4849,7 +4845,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4857,7 +4853,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4865,7 +4861,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4873,7 +4869,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4881,7 +4877,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4889,7 +4885,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4916,13 +4912,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4934,12 +4930,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4951,11 +4947,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +4971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4995,7 +4991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5055,7 +5051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5083,7 +5079,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5091,7 +5087,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5099,7 +5095,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5107,7 +5103,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5115,7 +5111,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5123,7 +5119,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5131,7 +5127,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5139,7 +5135,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5147,7 +5143,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5155,7 +5151,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5163,7 +5159,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5171,7 +5167,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5179,7 +5175,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5187,7 +5183,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5195,7 +5191,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5203,7 +5199,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5211,7 +5207,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5219,7 +5215,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5227,7 +5223,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5235,7 +5231,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5243,7 +5239,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5251,7 +5247,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5259,7 +5255,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5267,7 +5263,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5275,7 +5271,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5283,7 +5279,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5291,7 +5287,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5314,18 +5310,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5337,12 +5333,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5354,11 +5350,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5418,7 +5414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5438,7 +5434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5458,7 +5454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5478,7 +5474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5538,7 +5534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5558,7 +5554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5578,7 +5574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5618,7 +5614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5638,7 +5634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5738,7 +5734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5758,7 +5754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5778,7 +5774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5798,7 +5794,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5838,107 +5834,47 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>43792</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>180</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>43793</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>210</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>43797</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>60</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>43797</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>120</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>43799</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <v>120</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5946,7 +5882,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5954,7 +5890,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5962,7 +5898,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5970,7 +5906,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5978,7 +5914,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5986,7 +5922,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5994,7 +5930,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6002,7 +5938,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6025,18 +5961,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6048,12 +5984,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6065,11 +6001,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6109,7 +6045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6129,7 +6065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6149,7 +6085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6169,7 +6105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6189,7 +6125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6209,7 +6145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6229,7 +6165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6249,7 +6185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6269,7 +6205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6289,7 +6225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6309,7 +6245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6329,7 +6265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6349,7 +6285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6369,7 +6305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6389,7 +6325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6409,7 +6345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6429,7 +6365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6449,7 +6385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6469,7 +6405,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6489,7 +6425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6509,7 +6445,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6529,7 +6465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6549,7 +6485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6569,7 +6505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6589,7 +6525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6609,7 +6545,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6629,7 +6565,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6649,31 +6585,67 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
+      <c r="A34" s="13">
+        <v>43801</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>110</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13">
+        <v>43801</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>110</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13">
+        <v>43801</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D36" s="8">
+        <v>30</v>
+      </c>
+      <c r="E36" s="8">
+        <v>140</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6681,7 +6653,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6708,13 +6680,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6726,12 +6698,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6743,11 +6715,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6767,7 +6739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6787,7 +6759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6807,7 +6779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6827,7 +6799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6847,7 +6819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6867,7 +6839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6887,7 +6859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6895,7 +6867,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6903,7 +6875,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6911,7 +6883,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6919,7 +6891,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6927,7 +6899,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6935,7 +6907,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6943,7 +6915,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6951,7 +6923,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6959,7 +6931,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6967,7 +6939,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6975,7 +6947,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6983,7 +6955,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6991,7 +6963,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6999,7 +6971,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7007,7 +6979,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7015,7 +6987,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7023,7 +6995,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7031,7 +7003,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7039,7 +7011,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7047,7 +7019,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7055,7 +7027,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7063,7 +7035,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7071,7 +7043,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7079,7 +7051,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7087,7 +7059,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7115,26 +7087,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7151,7 +7123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7169,7 +7141,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7189,7 +7161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7209,7 +7181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7229,7 +7201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7249,7 +7221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7269,7 +7241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7289,7 +7261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7309,7 +7281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7329,7 +7301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7349,7 +7321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7389,7 +7361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7409,21 +7381,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1030</v>
+        <v>1060</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>4220</v>
+        <v>3890</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>3190</v>
+        <v>2830</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C3CFE8-FDD6-F242-8D3D-D75DD5246C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F377BC-6332-8246-B0BB-45022AEE419F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -5961,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -6586,67 +6586,55 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13">
+      <c r="A34" s="30">
         <v>43801</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="25">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>110</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="C34" s="25">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D34" s="28">
+        <v>170</v>
+      </c>
+      <c r="E34" s="28">
+        <v>480</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="B35" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C35" s="3">
-        <v>0.6875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D35" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13">
-        <v>43801</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="D36" s="8">
-        <v>30</v>
-      </c>
-      <c r="E36" s="8">
-        <v>140</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A36" s="13"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="8"/>
@@ -6654,7 +6642,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
@@ -7387,15 +7375,15 @@
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1060</v>
+        <v>1230</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>3890</v>
+        <v>4140</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>2830</v>
+        <v>2910</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F377BC-6332-8246-B0BB-45022AEE419F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10355051-76B6-8E47-B5B7-02353EDC8F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4386,7 +4386,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -5962,7 +5962,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -6626,12 +6626,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="13">
+        <v>43803</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D36" s="8">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8">
+        <v>180</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="30"/>
@@ -7375,15 +7387,15 @@
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>4140</v>
+        <v>4320</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>2910</v>
+        <v>3030</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10355051-76B6-8E47-B5B7-02353EDC8F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62724226-84DF-694F-9173-1BC2C4C7D881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="112">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -5961,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -6646,12 +6646,24 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="30"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="30">
+        <v>43803</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="30"/>
@@ -7291,11 +7303,11 @@
       </c>
       <c r="C13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>60</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62724226-84DF-694F-9173-1BC2C4C7D881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04067692-67BB-4D9E-9340-106458253CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="980" windowWidth="15660" windowHeight="13540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,6 +2976,10 @@
       </rPr>
       <t>로직짜기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2991,7 +2995,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3159,7 +3163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3251,6 +3255,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3639,20 +3644,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3664,10 +3669,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3679,8 +3684,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3721,7 +3726,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3742,7 +3747,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3902,7 +3907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4062,7 +4067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4142,7 +4147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4222,7 +4227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4262,7 +4267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4302,7 +4307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4322,47 +4327,107 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>43798</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>270</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>43799</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D38" s="8">
+        <v>30</v>
+      </c>
+      <c r="E38" s="16">
+        <v>210</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>420</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>43802</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>30</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47">
+        <v>43805</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>90</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4389,14 +4454,14 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4408,12 +4473,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4425,11 +4490,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4449,7 +4514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4469,7 +4534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4489,7 +4554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4509,7 +4574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4529,7 +4594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4549,7 +4614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4569,7 +4634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4589,7 +4654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4609,7 +4674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4629,7 +4694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4649,7 +4714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4669,7 +4734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4689,7 +4754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4709,7 +4774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4729,7 +4794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4749,7 +4814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4757,7 +4822,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4765,7 +4830,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4773,7 +4838,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4781,7 +4846,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4789,7 +4854,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4797,7 +4862,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4805,7 +4870,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4813,7 +4878,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4821,7 +4886,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4829,7 +4894,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4837,7 +4902,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4845,7 +4910,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4853,7 +4918,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4861,7 +4926,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4869,7 +4934,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4877,7 +4942,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4885,7 +4950,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4912,13 +4977,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4930,12 +4995,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4947,11 +5012,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +5036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4991,7 +5056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5011,7 +5076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5031,7 +5096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5071,7 +5136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5079,7 +5144,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5087,7 +5152,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5095,7 +5160,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5103,7 +5168,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5111,7 +5176,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5119,7 +5184,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5127,7 +5192,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5135,7 +5200,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5143,7 +5208,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5151,7 +5216,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5159,7 +5224,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5167,7 +5232,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5175,7 +5240,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5183,7 +5248,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5191,7 +5256,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5199,7 +5264,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5207,7 +5272,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5215,7 +5280,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5223,7 +5288,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5231,7 +5296,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5239,7 +5304,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5247,7 +5312,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5255,7 +5320,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5263,7 +5328,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5271,7 +5336,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5279,7 +5344,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5287,7 +5352,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5310,18 +5375,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5333,12 +5398,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5350,11 +5415,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5394,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5414,7 +5479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5434,7 +5499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5454,7 +5519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5474,7 +5539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5494,7 +5559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5514,7 +5579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5534,7 +5599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5554,7 +5619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5574,7 +5639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5594,7 +5659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5614,7 +5679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5634,7 +5699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5654,7 +5719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5674,7 +5739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5694,7 +5759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5714,7 +5779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5734,7 +5799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5754,7 +5819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5774,7 +5839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5794,7 +5859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5814,7 +5879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5834,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5842,7 +5907,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5850,7 +5915,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5858,7 +5923,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5866,7 +5931,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5874,7 +5939,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5882,7 +5947,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5890,7 +5955,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5898,7 +5963,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5906,7 +5971,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5914,7 +5979,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5922,7 +5987,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5930,7 +5995,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5938,7 +6003,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5961,18 +6026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -5984,12 +6049,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6001,11 +6066,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6045,7 +6110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6065,7 +6130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6085,7 +6150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6105,7 +6170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6125,7 +6190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6145,7 +6210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6165,7 +6230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6185,7 +6250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6205,7 +6270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6225,7 +6290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6245,7 +6310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6265,7 +6330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6285,7 +6350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6305,7 +6370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6325,7 +6390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6345,7 +6410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6365,7 +6430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6385,7 +6450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6405,7 +6470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6425,7 +6490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6445,7 +6510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6465,7 +6530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6485,7 +6550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6505,7 +6570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6525,7 +6590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6545,7 +6610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6565,7 +6630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6585,7 +6650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -6605,7 +6670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -6625,7 +6690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -6645,7 +6710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -6665,7 +6730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6692,13 +6757,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6710,12 +6775,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6727,11 +6792,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6751,7 +6816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6771,7 +6836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6791,7 +6856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6811,7 +6876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6831,7 +6896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6851,7 +6916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6871,7 +6936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6879,7 +6944,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6887,7 +6952,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6895,7 +6960,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6903,7 +6968,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6911,7 +6976,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6919,7 +6984,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6927,7 +6992,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6935,7 +7000,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6943,7 +7008,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6951,7 +7016,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6959,7 +7024,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6967,7 +7032,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6975,7 +7040,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6983,7 +7048,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6991,7 +7056,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6999,7 +7064,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7007,7 +7072,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7015,7 +7080,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7023,7 +7088,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7031,7 +7096,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7039,7 +7104,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7047,7 +7112,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7055,7 +7120,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7063,7 +7128,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7071,7 +7136,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7099,26 +7164,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7135,7 +7200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7153,7 +7218,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7173,7 +7238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7193,7 +7258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7213,7 +7278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7233,7 +7298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7253,7 +7318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7273,7 +7338,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7293,7 +7358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7313,7 +7378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7333,7 +7398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7353,7 +7418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7363,17 +7428,17 @@
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7393,21 +7458,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>4320</v>
+        <v>5250</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>3030</v>
+        <v>3930</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04067692-67BB-4D9E-9340-106458253CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7691BA8-5722-7049-BB30-1B05216F1A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="113">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2995,7 +2995,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3644,20 +3644,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3669,10 +3669,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3684,8 +3684,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="47">
         <v>43805</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4454,14 +4454,14 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4473,12 +4473,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4490,11 +4490,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4822,7 +4822,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4830,7 +4830,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4838,7 +4838,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4846,7 +4846,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4854,7 +4854,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4862,7 +4862,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4870,7 +4870,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4878,7 +4878,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4886,7 +4886,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4894,7 +4894,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4902,7 +4902,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4910,7 +4910,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4918,7 +4918,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4926,7 +4926,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4934,7 +4934,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4942,7 +4942,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4950,7 +4950,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4977,13 +4977,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4995,12 +4995,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5012,11 +5012,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5144,7 +5144,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5152,7 +5152,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5160,7 +5160,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5168,7 +5168,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5176,7 +5176,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5184,7 +5184,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5192,7 +5192,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5200,7 +5200,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5208,7 +5208,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5216,7 +5216,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5224,7 +5224,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5232,7 +5232,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5240,7 +5240,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5248,7 +5248,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5256,7 +5256,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5264,7 +5264,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5272,7 +5272,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5280,7 +5280,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5288,7 +5288,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5296,7 +5296,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5304,7 +5304,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5312,7 +5312,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5320,7 +5320,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5328,7 +5328,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5336,7 +5336,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5344,7 +5344,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5352,7 +5352,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5379,14 +5379,14 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5398,12 +5398,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5415,11 +5415,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5907,7 +5907,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5915,7 +5915,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5923,7 +5923,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5931,7 +5931,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5939,7 +5939,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5947,7 +5947,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5955,7 +5955,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5963,7 +5963,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5971,7 +5971,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5979,7 +5979,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5987,7 +5987,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5995,7 +5995,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6003,7 +6003,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6024,20 +6024,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6049,12 +6049,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6066,11 +6066,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -6730,13 +6730,45 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="4"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="30">
+        <v>43804</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="30">
+        <v>43805</v>
+      </c>
+      <c r="B39" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D39" s="28">
+        <v>60</v>
+      </c>
+      <c r="E39" s="28">
+        <v>390</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6757,13 +6789,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6775,12 +6807,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6792,11 +6824,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6816,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6836,7 +6868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6856,7 +6888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6876,7 +6908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6896,7 +6928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6916,7 +6948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6936,7 +6968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6944,7 +6976,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6952,7 +6984,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6960,7 +6992,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6968,7 +7000,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6976,7 +7008,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6984,7 +7016,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6992,7 +7024,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7000,7 +7032,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7008,7 +7040,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7016,7 +7048,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7024,7 +7056,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7032,7 +7064,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7040,7 +7072,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7048,7 +7080,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7056,7 +7088,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7064,7 +7096,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7072,7 +7104,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7080,7 +7112,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7088,7 +7120,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7096,7 +7128,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7104,7 +7136,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7112,7 +7144,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7120,7 +7152,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7128,7 +7160,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7136,7 +7168,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7164,26 +7196,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7200,7 +7232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7218,7 +7250,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7238,7 +7270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7258,7 +7290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7278,7 +7310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7298,7 +7330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7318,7 +7350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7338,7 +7370,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7358,7 +7390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7378,7 +7410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7398,7 +7430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7418,7 +7450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7438,7 +7470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7458,21 +7490,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>5250</v>
+        <v>5730</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>3930</v>
+        <v>4350</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7691BA8-5722-7049-BB30-1B05216F1A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D32723-B2B5-4BDC-91FA-B86BC08E6FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="744" windowWidth="12324" windowHeight="10932" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2976,6 +2976,10 @@
       </rPr>
       <t>로직짜기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2995,7 +2999,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3163,7 +3167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3255,7 +3259,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3644,20 +3647,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3669,10 +3672,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3684,8 +3687,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3726,7 +3729,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4407,8 +4410,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="47">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
         <v>43805</v>
       </c>
       <c r="B41" s="3">
@@ -4427,7 +4430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4454,14 +4457,14 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4473,12 +4476,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4490,11 +4493,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>87</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4822,7 +4825,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4830,7 +4833,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4838,7 +4841,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4846,7 +4849,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4854,7 +4857,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4862,7 +4865,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4870,7 +4873,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4878,7 +4881,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4886,7 +4889,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4894,7 +4897,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4902,7 +4905,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4910,7 +4913,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4918,7 +4921,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4926,7 +4929,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4934,7 +4937,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4942,7 +4945,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4950,7 +4953,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4977,13 +4980,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4995,12 +4998,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5012,11 +5015,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>43</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5144,7 +5147,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5152,7 +5155,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5160,7 +5163,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5168,7 +5171,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5176,7 +5179,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5184,7 +5187,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5192,7 +5195,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5200,7 +5203,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5208,7 +5211,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5216,7 +5219,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5224,7 +5227,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5232,7 +5235,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5240,7 +5243,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5248,7 +5251,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5256,7 +5259,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5264,7 +5267,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5272,7 +5275,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5280,7 +5283,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5288,7 +5291,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5296,7 +5299,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5304,7 +5307,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5312,7 +5315,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5320,7 +5323,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5328,7 +5331,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5336,7 +5339,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5344,7 +5347,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5352,7 +5355,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5375,18 +5378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5398,12 +5401,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5415,11 +5418,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5899,71 +5902,167 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43792</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>180</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>43793</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>210</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>60</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>150</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>43799</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>120</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>150</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>60</v>
+      </c>
+      <c r="E35" s="16">
+        <v>150</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>43804</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>240</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5971,7 +6070,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5979,7 +6078,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5987,7 +6086,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5995,7 +6094,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6003,7 +6102,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6026,18 +6125,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6049,12 +6148,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6066,11 +6165,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6090,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6110,7 +6209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6130,7 +6229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6150,7 +6249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6170,7 +6269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6190,7 +6289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -6210,7 +6309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
@@ -6230,7 +6329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
@@ -6250,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -6270,7 +6369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
@@ -6290,7 +6389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>75</v>
       </c>
@@ -6310,7 +6409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
@@ -6330,7 +6429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
@@ -6350,7 +6449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
@@ -6370,7 +6469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
@@ -6390,7 +6489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6410,7 +6509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
@@ -6430,7 +6529,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6450,7 +6549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6470,7 +6569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6490,7 +6589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6510,7 +6609,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6530,7 +6629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6550,7 +6649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6570,7 +6669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6590,7 +6689,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6610,7 +6709,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6630,7 +6729,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6650,7 +6749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -6670,7 +6769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -6690,7 +6789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -6710,7 +6809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -6730,7 +6829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43804</v>
       </c>
@@ -6750,7 +6849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43805</v>
       </c>
@@ -6789,13 +6888,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6807,12 +6906,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6824,11 +6923,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6848,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -6868,7 +6967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -6888,7 +6987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6908,7 +7007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
@@ -6928,7 +7027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -6948,7 +7047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
@@ -6968,7 +7067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6976,7 +7075,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6984,7 +7083,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6992,7 +7091,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7000,7 +7099,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7008,7 +7107,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7016,7 +7115,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7024,7 +7123,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7032,7 +7131,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7040,7 +7139,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7048,7 +7147,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7056,7 +7155,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7064,7 +7163,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7072,7 +7171,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7080,7 +7179,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7088,7 +7187,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7096,7 +7195,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7104,7 +7203,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7112,7 +7211,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7120,7 +7219,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7128,7 +7227,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7136,7 +7235,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7144,7 +7243,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7152,7 +7251,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7160,7 +7259,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7168,7 +7267,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7192,30 +7291,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7232,7 +7331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -7250,7 +7349,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7270,7 +7369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7290,7 +7389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7310,7 +7409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7330,7 +7429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7350,7 +7449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7370,7 +7469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -7390,7 +7489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
@@ -7410,7 +7509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -7430,7 +7529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>95</v>
       </c>
@@ -7450,7 +7549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -7470,7 +7569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
@@ -7490,21 +7589,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>5730</v>
+        <v>6990</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>4350</v>
+        <v>5550</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>104</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D32723-B2B5-4BDC-91FA-B86BC08E6FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="744" windowWidth="12324" windowHeight="10932" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="8976" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,12 +229,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,12 +425,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -622,12 +621,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -818,12 +817,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -837,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1014,12 +1013,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1797,6 +1796,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>주제 선정</t>
+  </si>
+  <si>
+    <t>회의</t>
+  </si>
+  <si>
     <r>
       <t>9</t>
     </r>
@@ -1815,7 +1820,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 5</t>
+      <t xml:space="preserve"> 17</t>
     </r>
     <r>
       <rPr>
@@ -1826,9 +1831,6 @@
       </rPr>
       <t>일</t>
     </r>
-  </si>
-  <si>
-    <t>주제 선정</t>
   </si>
   <si>
     <r>
@@ -1849,7 +1851,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 6</t>
+      <t xml:space="preserve"> 19</t>
     </r>
     <r>
       <rPr>
@@ -1860,9 +1862,6 @@
       </rPr>
       <t>일</t>
     </r>
-  </si>
-  <si>
-    <t>회의</t>
   </si>
   <si>
     <r>
@@ -1883,7 +1882,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 17</t>
+      <t xml:space="preserve"> 20</t>
     </r>
     <r>
       <rPr>
@@ -1894,100 +1893,6 @@
       </rPr>
       <t>일</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회의</t>
@@ -2988,13 +2893,37 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료조사</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -3262,9 +3191,9 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
-    <cellStyle name="20% - 강조색6 2" xfId="4" xr:uid="{DD624336-DD86-45D8-A397-485F1DBDCE65}"/>
+    <cellStyle name="20% - 강조색6 2" xfId="4"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3644,11 +3573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3887,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3907,7 +3836,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
@@ -3947,7 +3876,7 @@
         <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,7 +3896,7 @@
         <v>180</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,7 +3916,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,7 +3956,7 @@
         <v>150</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4047,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4067,7 +3996,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4087,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4107,7 +4036,7 @@
         <v>150</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4056,7 @@
         <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,7 +4076,7 @@
         <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4096,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4187,7 +4116,7 @@
         <v>110</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4207,7 +4136,7 @@
         <v>180</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,7 +4156,7 @@
         <v>330</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4247,7 +4176,7 @@
         <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,7 +4196,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4287,7 +4216,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,7 +4236,7 @@
         <v>310</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,7 +4256,7 @@
         <v>360</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,7 +4276,7 @@
         <v>270</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4367,7 +4296,7 @@
         <v>210</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,7 +4316,7 @@
         <v>420</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,7 +4336,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,7 +4356,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4450,11 +4379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4574,7 +4503,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4594,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4614,7 +4543,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4634,12 +4563,12 @@
         <v>120</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" s="39">
         <v>0</v>
@@ -4654,7 +4583,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4699,7 +4628,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="39">
         <v>0.66666666666666663</v>
@@ -4714,7 +4643,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4739,7 +4668,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" s="25">
         <v>0.6875</v>
@@ -4759,7 +4688,7 @@
     </row>
     <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3">
         <v>0.95833333333333337</v>
@@ -4774,12 +4703,12 @@
         <v>110</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3">
         <v>0.70833333333333337</v>
@@ -4794,12 +4723,12 @@
         <v>120</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3">
         <v>0.875</v>
@@ -4814,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -4973,10 +4902,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5061,7 +4990,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>0.75</v>
@@ -5076,12 +5005,12 @@
         <v>120</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -5096,12 +5025,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -5116,12 +5045,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5">
         <v>0.9375</v>
@@ -5136,7 +5065,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5375,11 +5304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5519,7 +5448,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5539,7 +5468,7 @@
         <v>120</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5559,7 +5488,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5579,7 +5508,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5599,7 +5528,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5659,7 +5588,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5679,7 +5608,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5699,7 +5628,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5739,7 +5668,7 @@
         <v>120</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5779,7 +5708,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5799,7 +5728,7 @@
         <v>180</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5819,7 +5748,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,7 +5768,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5859,7 +5788,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5879,7 +5808,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5899,7 +5828,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5919,7 +5848,7 @@
         <v>180</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5939,7 +5868,7 @@
         <v>210</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5959,7 +5888,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5979,7 +5908,7 @@
         <v>150</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -5999,7 +5928,7 @@
         <v>120</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -6019,7 +5948,7 @@
         <v>150</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -6039,7 +5968,7 @@
         <v>150</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
@@ -6059,7 +5988,7 @@
         <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,11 +6051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6291,7 +6220,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3">
         <v>0.9375</v>
@@ -6303,15 +6232,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3">
         <v>0.70138888888888884</v>
@@ -6323,15 +6252,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3">
         <v>0.91666666666666663</v>
@@ -6343,15 +6272,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3">
         <v>0.625</v>
@@ -6363,15 +6292,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3">
         <v>0.625</v>
@@ -6383,15 +6312,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3">
         <v>0.625</v>
@@ -6403,15 +6332,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
@@ -6423,15 +6352,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3">
         <v>0.6875</v>
@@ -6443,15 +6372,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3">
         <v>0.81944444444444453</v>
@@ -6463,15 +6392,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3">
         <v>0.70833333333333337</v>
@@ -6483,15 +6412,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3">
         <v>0.91666666666666663</v>
@@ -6503,15 +6432,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3">
         <v>0.70833333333333337</v>
@@ -6523,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6546,7 +6475,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6566,7 +6495,7 @@
         <v>240</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6586,7 +6515,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6606,7 +6535,7 @@
         <v>700</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,7 +6575,7 @@
         <v>120</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,7 +6595,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,7 +6615,7 @@
         <v>720</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6706,7 +6635,7 @@
         <v>150</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6726,7 +6655,7 @@
         <v>120</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6746,7 +6675,7 @@
         <v>120</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,7 +6695,7 @@
         <v>480</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,7 +6715,7 @@
         <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,7 +6735,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6826,7 +6755,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,7 +6775,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6866,7 +6795,7 @@
         <v>390</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6881,15 +6810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
@@ -6948,8 +6878,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
+      <c r="A6" s="13">
+        <v>43713</v>
       </c>
       <c r="B6" s="3">
         <v>0.875</v>
@@ -6964,12 +6894,12 @@
         <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
+      <c r="A7" s="13">
+        <v>43714</v>
       </c>
       <c r="B7" s="3">
         <v>0.625</v>
@@ -6984,12 +6914,12 @@
         <v>120</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
+      <c r="A8" s="13">
+        <v>43725</v>
       </c>
       <c r="B8" s="3">
         <v>0.875</v>
@@ -7004,12 +6934,12 @@
         <v>120</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
+      <c r="A9" s="13">
+        <v>43727</v>
       </c>
       <c r="B9" s="3">
         <v>0.91666666666666663</v>
@@ -7024,12 +6954,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>40</v>
+      <c r="A10" s="14">
+        <v>43728</v>
       </c>
       <c r="B10" s="5">
         <v>0.9375</v>
@@ -7044,12 +6974,12 @@
         <v>180</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>41</v>
+      <c r="A11" s="13">
+        <v>43730</v>
       </c>
       <c r="B11" s="3">
         <v>0.91666666666666663</v>
@@ -7064,120 +6994,288 @@
         <v>120</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="30">
+        <v>43736</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="30">
+        <v>43742</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
+      <c r="A15" s="30">
+        <v>43747</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
+      <c r="A17" s="30">
+        <v>43763</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C17" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>70</v>
+      </c>
+      <c r="E17" s="32">
+        <v>110</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="28">
+        <v>60</v>
+      </c>
+      <c r="E18" s="32">
+        <v>120</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>80</v>
+      </c>
+      <c r="E19" s="32">
+        <v>100</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
+      <c r="A20" s="13">
+        <v>43766</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43778</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>100</v>
+      </c>
+      <c r="E21" s="32">
+        <v>420</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43779</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C22" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>120</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43780</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <v>60</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43783</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D24" s="28">
+        <v>60</v>
+      </c>
+      <c r="E24" s="32">
+        <v>150</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43783</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D25" s="8">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16">
+        <v>80</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
@@ -7240,40 +7338,24 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7288,11 +7370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7333,7 +7415,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A5,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
@@ -7366,7 +7448,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -7386,7 +7468,7 @@
         <v>4410</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -7406,7 +7488,7 @@
         <v>120</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -7426,7 +7508,7 @@
         <v>390</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -7446,7 +7528,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -7455,23 +7537,23 @@
       </c>
       <c r="B11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C11" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="37">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>970</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
@@ -7486,32 +7568,32 @@
         <v>210</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
@@ -7526,12 +7608,12 @@
         <v>550</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
@@ -7546,67 +7628,67 @@
         <v>170</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17" si="3">C17-B17</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>1440</v>
+        <v>1570</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>6990</v>
+        <v>7220</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>5550</v>
+        <v>5650</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7B337-C4E9-5942-9B7D-EF28343FDEA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="8976" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15280" windowHeight="8980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -229,12 +230,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -425,12 +426,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -621,12 +622,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -640,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -817,12 +818,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -836,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1013,12 +1014,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2923,12 +2924,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3191,9 +3192,9 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
-    <cellStyle name="20% - 강조색6 2" xfId="4"/>
+    <cellStyle name="20% - 강조색6 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3573,23 +3574,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3601,10 +3602,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3616,8 +3617,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3658,7 +3659,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3679,7 +3680,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="30">
         <v>43805</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4379,21 +4380,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4405,12 +4406,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4422,11 +4423,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
         <v>84</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
         <v>85</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
         <v>86</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
         <v>89</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4754,7 +4755,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4762,7 +4763,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4770,7 +4771,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4778,7 +4779,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4786,7 +4787,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4794,7 +4795,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4802,7 +4803,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4810,7 +4811,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4818,7 +4819,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4826,7 +4827,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4834,7 +4835,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4842,7 +4843,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4850,7 +4851,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4858,7 +4859,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4866,7 +4867,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4874,7 +4875,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4882,7 +4883,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4902,20 +4903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4927,12 +4928,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4944,11 +4945,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>40</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5076,7 +5077,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5084,7 +5085,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5092,7 +5093,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5100,7 +5101,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5108,7 +5109,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5116,7 +5117,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5124,7 +5125,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5132,7 +5133,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5140,7 +5141,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5148,7 +5149,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5156,7 +5157,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5164,7 +5165,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5172,7 +5173,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5180,7 +5181,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5188,7 +5189,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5196,7 +5197,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5204,7 +5205,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5212,7 +5213,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5220,7 +5221,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5228,7 +5229,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5236,7 +5237,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5244,7 +5245,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5252,7 +5253,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5260,7 +5261,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5268,7 +5269,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5276,7 +5277,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5284,7 +5285,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5304,21 +5305,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5330,12 +5331,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5347,11 +5348,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="13">
         <v>43792</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43793</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14">
       <c r="A31" s="13">
         <v>43797</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14">
       <c r="A32" s="13">
         <v>43797</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14">
       <c r="A34" s="13">
         <v>43800</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14">
       <c r="A35" s="13">
         <v>43800</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14">
       <c r="A36" s="13">
         <v>43804</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5999,7 +6000,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6007,7 +6008,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6015,7 +6016,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6023,7 +6024,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6031,7 +6032,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6051,21 +6052,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -6077,12 +6078,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6094,11 +6095,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13" t="s">
         <v>64</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>68</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
         <v>70</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
         <v>71</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>72</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
         <v>74</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>77</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>77</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>79</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="30">
         <v>43804</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="30">
         <v>43805</v>
       </c>
@@ -6786,15 +6787,35 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C39" s="25">
-        <v>0.85416666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="D39" s="28">
         <v>60</v>
       </c>
       <c r="E39" s="28">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="F39" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="28">
+        <v>90</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6810,21 +6831,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6836,12 +6857,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6853,11 +6874,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6877,7 +6898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6897,7 +6918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6917,7 +6938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6937,7 +6958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43727</v>
       </c>
@@ -6957,7 +6978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14">
         <v>43728</v>
       </c>
@@ -6977,7 +6998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13">
         <v>43730</v>
       </c>
@@ -6997,7 +7018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="30">
         <v>43735</v>
       </c>
@@ -7017,7 +7038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="30">
         <v>43736</v>
       </c>
@@ -7037,7 +7058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="30">
         <v>43742</v>
       </c>
@@ -7057,7 +7078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="30">
         <v>43747</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43748</v>
       </c>
@@ -7097,7 +7118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="30">
         <v>43763</v>
       </c>
@@ -7117,7 +7138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="30">
         <v>43764</v>
       </c>
@@ -7137,7 +7158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="30">
         <v>43764</v>
       </c>
@@ -7157,7 +7178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13">
         <v>43766</v>
       </c>
@@ -7177,7 +7198,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43778</v>
       </c>
@@ -7197,7 +7218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43779</v>
       </c>
@@ -7217,7 +7238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43780</v>
       </c>
@@ -7237,7 +7258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43783</v>
       </c>
@@ -7257,7 +7278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14">
       <c r="A25" s="13">
         <v>43783</v>
       </c>
@@ -7277,7 +7298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7285,7 +7306,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7293,7 +7314,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7301,7 +7322,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7309,7 +7330,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7317,7 +7338,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7325,7 +7346,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7333,7 +7354,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7341,7 +7362,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7349,7 +7370,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7370,33 +7391,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
@@ -7413,7 +7434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -7431,7 +7452,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
@@ -7471,7 +7492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -7491,7 +7512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
@@ -7511,7 +7532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -7551,7 +7572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>52</v>
       </c>
@@ -7571,7 +7592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>56</v>
       </c>
@@ -7591,7 +7612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>60</v>
       </c>
@@ -7611,7 +7632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>92</v>
       </c>
@@ -7631,7 +7652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>96</v>
       </c>
@@ -7651,7 +7672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>97</v>
       </c>
@@ -7671,7 +7692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>100</v>
       </c>
@@ -7681,11 +7702,11 @@
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>7220</v>
+        <v>7430</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>5650</v>
+        <v>5860</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>101</v>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7B337-C4E9-5942-9B7D-EF28343FDEA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5EE0C-A183-284A-BC3B-D40BA4EBC0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15280" windowHeight="8980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,12 +1000,273 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Soojin Park:
-원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Soojin Park:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>원래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Phase</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>우리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>관련된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Activity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>뭔지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>성혜가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Test Case </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>정도의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Granulity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>것</t>
         </r>
       </text>
     </comment>
@@ -1210,7 +1471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2525,64 +2786,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9월 20일</t>
-  </si>
-  <si>
     <t>180 </t>
   </si>
   <si>
-    <t>9월 21일</t>
-  </si>
-  <si>
     <t>30 </t>
   </si>
   <si>
-    <t>9월 22일</t>
-  </si>
-  <si>
     <t>120 </t>
   </si>
   <si>
-    <t>9월 27일</t>
-  </si>
-  <si>
-    <t>9월 28일</t>
-  </si>
-  <si>
-    <t>10월 4일</t>
-  </si>
-  <si>
     <t>150 </t>
   </si>
   <si>
-    <t>10월 9일</t>
-  </si>
-  <si>
     <t>20 </t>
   </si>
   <si>
     <t>자료조사</t>
   </si>
   <si>
-    <t>10월 10일</t>
-  </si>
-  <si>
     <t>다큐멘테이션 정리 및 수정</t>
   </si>
   <si>
-    <t>10월 11일</t>
-  </si>
-  <si>
     <t>240 </t>
   </si>
   <si>
     <t>GUI</t>
-  </si>
-  <si>
-    <t>10월 12일</t>
-  </si>
-  <si>
-    <t>10월 13일</t>
   </si>
   <si>
     <r>
@@ -2929,7 +3157,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3043,6 +3271,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4077,7 +4311,7 @@
         <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
@@ -4097,7 +4331,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4117,7 +4351,7 @@
         <v>110</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14">
@@ -4137,7 +4371,7 @@
         <v>180</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
@@ -4157,7 +4391,7 @@
         <v>330</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
@@ -4177,7 +4411,7 @@
         <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
@@ -4197,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
@@ -4217,7 +4451,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
@@ -4237,7 +4471,7 @@
         <v>310</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -4257,7 +4491,7 @@
         <v>360</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
@@ -4277,7 +4511,7 @@
         <v>270</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
@@ -4297,7 +4531,7 @@
         <v>210</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
@@ -4317,7 +4551,7 @@
         <v>420</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
@@ -4337,7 +4571,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
@@ -4357,7 +4591,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
@@ -4569,7 +4803,7 @@
     </row>
     <row r="12" spans="1:6" ht="14">
       <c r="A12" s="45" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B12" s="39">
         <v>0</v>
@@ -4629,7 +4863,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B15" s="39">
         <v>0.66666666666666663</v>
@@ -4669,7 +4903,7 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="45" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B17" s="25">
         <v>0.6875</v>
@@ -4689,7 +4923,7 @@
     </row>
     <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3">
         <v>0.95833333333333337</v>
@@ -4704,12 +4938,12 @@
         <v>110</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14">
       <c r="A19" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>0.70833333333333337</v>
@@ -4724,12 +4958,12 @@
         <v>120</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3">
         <v>0.875</v>
@@ -4744,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14">
@@ -5709,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14">
@@ -5729,7 +5963,7 @@
         <v>180</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14">
@@ -5749,7 +5983,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5769,7 +6003,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14">
@@ -5789,7 +6023,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14">
@@ -5809,7 +6043,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14">
@@ -5829,7 +6063,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14">
@@ -5849,7 +6083,7 @@
         <v>180</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14">
@@ -5869,7 +6103,7 @@
         <v>210</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14">
@@ -5889,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14">
@@ -5909,7 +6143,7 @@
         <v>150</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14">
@@ -5929,7 +6163,7 @@
         <v>120</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14">
@@ -5949,7 +6183,7 @@
         <v>150</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14">
@@ -5969,7 +6203,7 @@
         <v>150</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14">
@@ -5989,7 +6223,7 @@
         <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6053,10 +6287,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -6220,8 +6454,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14">
-      <c r="A11" s="13" t="s">
-        <v>64</v>
+      <c r="A11" s="30">
+        <v>43728</v>
       </c>
       <c r="B11" s="3">
         <v>0.9375</v>
@@ -6233,15 +6467,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>66</v>
+      <c r="A12" s="30">
+        <v>43729</v>
       </c>
       <c r="B12" s="3">
         <v>0.70138888888888884</v>
@@ -6253,15 +6487,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>68</v>
+      <c r="A13" s="30">
+        <v>43730</v>
       </c>
       <c r="B13" s="3">
         <v>0.91666666666666663</v>
@@ -6273,15 +6507,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>70</v>
+      <c r="A14" s="13">
+        <v>43735</v>
       </c>
       <c r="B14" s="3">
         <v>0.625</v>
@@ -6293,15 +6527,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>71</v>
+      <c r="A15" s="30">
+        <v>43736</v>
       </c>
       <c r="B15" s="3">
         <v>0.625</v>
@@ -6313,15 +6547,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>72</v>
+      <c r="A16" s="13">
+        <v>43742</v>
       </c>
       <c r="B16" s="3">
         <v>0.625</v>
@@ -6333,15 +6567,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>74</v>
+      <c r="A17" s="13">
+        <v>43747</v>
       </c>
       <c r="B17" s="3">
         <v>0.64583333333333337</v>
@@ -6353,15 +6587,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="13" t="s">
-        <v>77</v>
+      <c r="A18" s="30">
+        <v>43748</v>
       </c>
       <c r="B18" s="3">
         <v>0.6875</v>
@@ -6373,15 +6607,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>77</v>
+      <c r="A19" s="30">
+        <v>43748</v>
       </c>
       <c r="B19" s="3">
         <v>0.81944444444444453</v>
@@ -6393,15 +6627,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>79</v>
+      <c r="A20" s="30">
+        <v>43749</v>
       </c>
       <c r="B20" s="3">
         <v>0.70833333333333337</v>
@@ -6413,15 +6647,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="13" t="s">
-        <v>82</v>
+      <c r="A21" s="30">
+        <v>43750</v>
       </c>
       <c r="B21" s="3">
         <v>0.91666666666666663</v>
@@ -6433,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>83</v>
+      <c r="A22" s="30">
+        <v>43751</v>
       </c>
       <c r="B22" s="3">
         <v>0.70833333333333337</v>
@@ -6453,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6516,7 +6750,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6536,7 +6770,7 @@
         <v>700</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6576,7 +6810,7 @@
         <v>120</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6596,7 +6830,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6616,7 +6850,7 @@
         <v>720</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6636,7 +6870,7 @@
         <v>150</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6656,7 +6890,7 @@
         <v>120</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6676,7 +6910,7 @@
         <v>120</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6696,7 +6930,7 @@
         <v>480</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6716,7 +6950,7 @@
         <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6736,7 +6970,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6776,7 +7010,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6796,7 +7030,7 @@
         <v>510</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6816,7 +7050,47 @@
         <v>90</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="D41" s="28">
+        <v>20</v>
+      </c>
+      <c r="E41" s="28">
+        <v>120</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="E42" s="28">
+        <v>60</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7032,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>35</v>
@@ -7052,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>35</v>
@@ -7072,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>35</v>
@@ -7092,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14">
@@ -7112,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>35</v>
@@ -7135,7 +7409,7 @@
         <v>110</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14">
@@ -7155,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7175,7 +7449,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14">
@@ -7195,7 +7469,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14">
@@ -7215,7 +7489,7 @@
         <v>420</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14">
@@ -7295,7 +7569,7 @@
         <v>80</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7569,7 +7843,7 @@
         <v>970</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14">
@@ -7598,15 +7872,15 @@
       </c>
       <c r="B13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C13" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>57</v>
@@ -7634,7 +7908,7 @@
     </row>
     <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B15" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
@@ -7649,12 +7923,12 @@
         <v>170</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
@@ -7662,19 +7936,19 @@
       </c>
       <c r="C16" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B17" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
@@ -7689,12 +7963,12 @@
         <v>90</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
@@ -7709,7 +7983,7 @@
         <v>5860</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5EE0C-A183-284A-BC3B-D40BA4EBC0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30572BC-80CB-441B-8FE3-6C4960877B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15280" windowHeight="8980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1471,7 +1471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="133">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3146,6 +3146,372 @@
   </si>
   <si>
     <t>자료조사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 17일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 16일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 25일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 12일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 11일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료조사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 13일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 21일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 6일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3157,7 +3523,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3278,6 +3644,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3293,7 +3671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3316,6 +3694,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3331,7 +3720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3423,6 +3812,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -3811,20 +4211,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3836,10 +4236,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3851,8 +4251,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3872,7 +4272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3893,7 +4293,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -3914,7 +4314,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -3934,7 +4334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -3954,7 +4354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -3974,7 +4374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -3994,7 +4394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -4014,7 +4414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -4034,7 +4434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -4054,7 +4454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -4074,7 +4474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -4094,7 +4494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -4114,7 +4514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -4134,7 +4534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -4154,7 +4554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4174,7 +4574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4194,7 +4594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4214,7 +4614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4234,7 +4634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4254,7 +4654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4274,7 +4674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4294,7 +4694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4314,7 +4714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4334,7 +4734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4354,7 +4754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4374,7 +4774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4394,7 +4794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4414,7 +4814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4434,7 +4834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4454,7 +4854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4474,7 +4874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4494,7 +4894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4514,7 +4914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4534,7 +4934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4554,7 +4954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4574,7 +4974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43805</v>
       </c>
@@ -4594,7 +4994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4618,17 +5018,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4640,12 +5040,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4657,11 +5057,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4681,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>43713</v>
       </c>
@@ -4701,7 +5101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>43714</v>
       </c>
@@ -4721,7 +5121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>43725</v>
       </c>
@@ -4741,7 +5141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>43726</v>
       </c>
@@ -4761,7 +5161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>43727</v>
       </c>
@@ -4781,7 +5181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>43728</v>
       </c>
@@ -4801,7 +5201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>73</v>
       </c>
@@ -4821,7 +5221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>43730</v>
       </c>
@@ -4841,7 +5241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>43735</v>
       </c>
@@ -4861,7 +5261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>74</v>
       </c>
@@ -4881,7 +5281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43742</v>
       </c>
@@ -4901,7 +5301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>75</v>
       </c>
@@ -4921,7 +5321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>76</v>
       </c>
@@ -4941,7 +5341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>78</v>
       </c>
@@ -4961,7 +5361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
@@ -4981,7 +5381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4989,7 +5389,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4997,7 +5397,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5005,7 +5405,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5013,7 +5413,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5021,7 +5421,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5029,7 +5429,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5037,7 +5437,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5045,7 +5445,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5053,7 +5453,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5061,7 +5461,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5069,7 +5469,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5077,7 +5477,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5085,7 +5485,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5093,7 +5493,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5101,7 +5501,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5109,7 +5509,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5117,7 +5517,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5140,17 +5540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5162,12 +5562,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5179,11 +5579,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5223,7 +5623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>40</v>
       </c>
@@ -5243,7 +5643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5263,7 +5663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -5283,7 +5683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -5303,215 +5703,527 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43730</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>120</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>90</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43736</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="8">
+        <v>120</v>
+      </c>
+      <c r="E14" s="16">
+        <v>360</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="8">
+        <v>120</v>
+      </c>
+      <c r="E15" s="16">
+        <v>300</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:d